--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.5E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.5E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4722 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92.09999999999999</v>
+        <v>112.2</v>
       </c>
       <c r="B2">
-        <v>30521.08994097656</v>
+        <v>52913.59683754315</v>
       </c>
       <c r="C2">
-        <v>1610.142482019621</v>
+        <v>3217.197654486269</v>
       </c>
       <c r="D2">
-        <v>1421.503497145454</v>
+        <v>59123.50870896952</v>
       </c>
       <c r="E2">
-        <v>456.3591514578493</v>
+        <v>1587.782992143364</v>
       </c>
       <c r="F2">
-        <v>299.3115177623014</v>
+        <v>367.7575711541849</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>114.9</v>
       </c>
       <c r="B3">
-        <v>7936.840862281553</v>
+        <v>42404.13553710529</v>
       </c>
       <c r="C3">
-        <v>2147.96065594214</v>
+        <v>2643.758512742989</v>
       </c>
       <c r="D3">
-        <v>3905.679203495692</v>
+        <v>52596.01210977865</v>
       </c>
       <c r="E3">
-        <v>762.9636398417765</v>
+        <v>1405.313156655083</v>
       </c>
       <c r="F3">
-        <v>559.8048866969193</v>
+        <v>457.5166521327188</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>117.8</v>
       </c>
       <c r="B4">
-        <v>7676.840862281553</v>
+        <v>43921.3808070054</v>
       </c>
       <c r="C4">
-        <v>3437.96065594214</v>
+        <v>2459.694249389088</v>
       </c>
       <c r="D4">
-        <v>2475.679203495692</v>
+        <v>46816.10835509217</v>
       </c>
       <c r="E4">
-        <v>742.9636398417765</v>
+        <v>820.8085185380403</v>
       </c>
       <c r="F4">
-        <v>219.8048866969193</v>
+        <v>276.5171465170693</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>120.1</v>
       </c>
       <c r="B5">
-        <v>16096.84086228155</v>
+        <v>30628.5063658916</v>
       </c>
       <c r="C5">
-        <v>3997.96065594214</v>
+        <v>1717.505350867024</v>
       </c>
       <c r="D5">
-        <v>4125.679203495692</v>
+        <v>41043.42606689252</v>
       </c>
       <c r="E5">
-        <v>1612.963639841777</v>
+        <v>1302.408288307284</v>
       </c>
       <c r="F5">
-        <v>659.8048866969193</v>
+        <v>277.7934006839683</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>122.3</v>
       </c>
       <c r="B6">
-        <v>22246.84086228156</v>
+        <v>32462.27863960901</v>
       </c>
       <c r="C6">
-        <v>4727.96065594214</v>
+        <v>2700.629013150265</v>
       </c>
       <c r="D6">
-        <v>5115.679203495692</v>
+        <v>38776.94735644072</v>
       </c>
       <c r="E6">
-        <v>962.9636398417765</v>
+        <v>300.0254593909056</v>
       </c>
       <c r="F6">
-        <v>859.8048866969193</v>
+        <v>49.44894814795856</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>92</v>
+        <v>124.5</v>
       </c>
       <c r="B7">
-        <v>16516.84086228156</v>
+        <v>33386.05091332629</v>
       </c>
       <c r="C7">
-        <v>4667.96065594214</v>
+        <v>1533.752675433519</v>
       </c>
       <c r="D7">
-        <v>3985.679203495692</v>
+        <v>33870.46864598888</v>
       </c>
       <c r="E7">
-        <v>1382.963639841777</v>
+        <v>587.6426304745273</v>
       </c>
       <c r="F7">
-        <v>409.8048866969193</v>
+        <v>361.1044956119488</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>92</v>
+        <v>126.5</v>
       </c>
       <c r="B8">
-        <v>14366.84086228155</v>
+        <v>24673.11661670572</v>
       </c>
       <c r="C8">
-        <v>5927.96065594214</v>
+        <v>567.5014593273827</v>
       </c>
       <c r="D8">
-        <v>3085.679203495692</v>
+        <v>34036.39709103268</v>
       </c>
       <c r="E8">
-        <v>1982.963639841777</v>
+        <v>987.2946041869134</v>
       </c>
       <c r="F8">
-        <v>429.8048866969193</v>
+        <v>403.5186296701219</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>128.9</v>
       </c>
       <c r="B9">
-        <v>21066.84086228156</v>
+        <v>28253.59546076097</v>
       </c>
       <c r="C9">
-        <v>6477.96065594214</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4805.679203495692</v>
+        <v>32977.51122508525</v>
       </c>
       <c r="E9">
-        <v>1072.963639841777</v>
+        <v>842.8769726417745</v>
       </c>
       <c r="F9">
-        <v>719.8048866969193</v>
+        <v>194.4155905399292</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>92.09999999999999</v>
+        <v>130.9</v>
       </c>
       <c r="B10">
-        <v>19381.08994097656</v>
+        <v>24080.66116414029</v>
       </c>
       <c r="C10">
-        <v>6480.142482019621</v>
+        <v>3133.748783893863</v>
       </c>
       <c r="D10">
-        <v>4061.503497145454</v>
+        <v>32713.43967012905</v>
       </c>
       <c r="E10">
-        <v>2126.359151457849</v>
+        <v>472.5289463541608</v>
       </c>
       <c r="F10">
-        <v>909.3115177623014</v>
+        <v>126.8297245981023</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>92</v>
+        <v>133.1</v>
       </c>
       <c r="B11">
-        <v>15986.84086228155</v>
+        <v>25344.43343785757</v>
       </c>
       <c r="C11">
-        <v>6277.96065594214</v>
+        <v>1206.872446177119</v>
       </c>
       <c r="D11">
-        <v>4545.679203495692</v>
+        <v>32786.96095967722</v>
       </c>
       <c r="E11">
-        <v>2312.963639841777</v>
+        <v>380.1461174377828</v>
       </c>
       <c r="F11">
-        <v>619.8048866969193</v>
+        <v>578.4852720620925</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>92</v>
+        <v>135.2</v>
       </c>
       <c r="B12">
-        <v>15476.84086228155</v>
+        <v>11694.85242640592</v>
       </c>
       <c r="C12">
-        <v>7257.96065594214</v>
+        <v>1655.308669265663</v>
       </c>
       <c r="D12">
-        <v>6385.679203495692</v>
+        <v>33906.68582697323</v>
       </c>
       <c r="E12">
-        <v>2102.963639841777</v>
+        <v>173.7806898357867</v>
       </c>
       <c r="F12">
-        <v>419.8048866969193</v>
+        <v>440.5201128231739</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>137.4</v>
       </c>
       <c r="B13">
-        <v>15756.84086228155</v>
+        <v>16838.62470012333</v>
       </c>
       <c r="C13">
-        <v>9057.960655942141</v>
+        <v>2398.432331548917</v>
       </c>
       <c r="D13">
-        <v>4985.679203495692</v>
+        <v>34600.2071165214</v>
       </c>
       <c r="E13">
-        <v>1512.963639841777</v>
+        <v>1251.397860919408</v>
       </c>
       <c r="F13">
-        <v>669.8048866969193</v>
+        <v>122.1756602871641</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B14">
-        <v>20656.84086228156</v>
+        <v>11885.81011451654</v>
       </c>
       <c r="C14">
-        <v>8037.96065594214</v>
+        <v>1870.305750610927</v>
       </c>
       <c r="D14">
-        <v>4185.679203495692</v>
+        <v>33288.91409507835</v>
       </c>
       <c r="E14">
-        <v>1712.963639841777</v>
+        <v>514.9454267455089</v>
       </c>
       <c r="F14">
-        <v>539.8048866969193</v>
+        <v>262.3140345627892</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>142.3</v>
       </c>
       <c r="B15">
-        <v>11876.84086228155</v>
+        <v>9482.935673402753</v>
       </c>
       <c r="C15">
-        <v>10147.96065594214</v>
+        <v>1838.116852088863</v>
       </c>
       <c r="D15">
-        <v>5295.679203495692</v>
+        <v>32886.23180687871</v>
       </c>
       <c r="E15">
-        <v>1882.963639841777</v>
+        <v>1086.545196514752</v>
       </c>
       <c r="F15">
-        <v>579.8048866969193</v>
+        <v>323.5902887296882</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>144.6</v>
       </c>
       <c r="B16">
-        <v>17376.84086228156</v>
+        <v>13130.06123228907</v>
       </c>
       <c r="C16">
-        <v>9387.960655942141</v>
+        <v>2165.9279535668</v>
       </c>
       <c r="D16">
-        <v>5765.679203495692</v>
+        <v>30123.54951867909</v>
       </c>
       <c r="E16">
-        <v>2392.963639841777</v>
+        <v>488.1449662839921</v>
       </c>
       <c r="F16">
-        <v>749.8048866969193</v>
+        <v>634.8665428965872</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>92</v>
+        <v>146.9</v>
       </c>
       <c r="B17">
-        <v>15346.84086228155</v>
+        <v>6507.186791175394</v>
       </c>
       <c r="C17">
-        <v>10577.96065594213</v>
+        <v>1823.739055044737</v>
       </c>
       <c r="D17">
-        <v>12825.67920349569</v>
+        <v>26120.86723047945</v>
       </c>
       <c r="E17">
-        <v>2062.963639841777</v>
+        <v>799.7447360532353</v>
       </c>
       <c r="F17">
-        <v>689.8048866969193</v>
+        <v>246.1427970634858</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>92.2</v>
+        <v>149.2</v>
       </c>
       <c r="B18">
-        <v>10805.33901967167</v>
+        <v>7844.312350061606</v>
       </c>
       <c r="C18">
-        <v>10332.32430809709</v>
+        <v>1781.550156522689</v>
       </c>
       <c r="D18">
-        <v>22047.32779079523</v>
+        <v>22758.18494227983</v>
       </c>
       <c r="E18">
-        <v>2429.754663073918</v>
+        <v>851.3445058224788</v>
       </c>
       <c r="F18">
-        <v>478.8181488276834</v>
+        <v>667.4190512303844</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>92.5</v>
+        <v>151.5</v>
       </c>
       <c r="B19">
-        <v>9798.086255757025</v>
+        <v>11961.43790894793</v>
       </c>
       <c r="C19">
-        <v>12898.86978632951</v>
+        <v>1729.361258000624</v>
       </c>
       <c r="D19">
-        <v>30584.80067174453</v>
+        <v>18715.50265408018</v>
       </c>
       <c r="E19">
-        <v>3279.941197922133</v>
+        <v>952.9442755917185</v>
       </c>
       <c r="F19">
-        <v>1587.33804202383</v>
+        <v>768.6953053972838</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>93.09999999999999</v>
+        <v>153.9</v>
       </c>
       <c r="B20">
-        <v>22563.58072792773</v>
+        <v>6581.916753003177</v>
       </c>
       <c r="C20">
-        <v>17881.96074279437</v>
+        <v>1101.859798673256</v>
       </c>
       <c r="D20">
-        <v>44649.74643364315</v>
+        <v>17326.61678813276</v>
       </c>
       <c r="E20">
-        <v>3870.314267618558</v>
+        <v>648.5266440465832</v>
       </c>
       <c r="F20">
-        <v>2724.377828416124</v>
+        <v>869.5922662670907</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>94.2</v>
+        <v>156.5</v>
       </c>
       <c r="B21">
-        <v>36820.32059357391</v>
+        <v>4229.102167396399</v>
       </c>
       <c r="C21">
-        <v>20315.96082964658</v>
+        <v>1833.733217735266</v>
       </c>
       <c r="D21">
-        <v>55673.81366379062</v>
+        <v>15425.32376668971</v>
       </c>
       <c r="E21">
-        <v>5057.664895395335</v>
+        <v>912.0742098726837</v>
       </c>
       <c r="F21">
-        <v>2168.950770135326</v>
+        <v>689.7306405427163</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>95.8</v>
+        <v>158.8</v>
       </c>
       <c r="B22">
-        <v>41088.30585269556</v>
+        <v>7496.227726282603</v>
       </c>
       <c r="C22">
-        <v>19220.87004688619</v>
+        <v>2831.544319213202</v>
       </c>
       <c r="D22">
-        <v>63257.0023621869</v>
+        <v>10972.64147849006</v>
       </c>
       <c r="E22">
-        <v>4941.993081252474</v>
+        <v>1273.673979641923</v>
       </c>
       <c r="F22">
-        <v>1571.056867181441</v>
+        <v>791.0068947096148</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>97.8</v>
+        <v>161</v>
       </c>
       <c r="B23">
-        <v>46613.28742659767</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>17744.50656843569</v>
+        <v>2484.667981496458</v>
       </c>
       <c r="D23">
-        <v>76103.48823518229</v>
+        <v>10256.16276803824</v>
       </c>
       <c r="E23">
-        <v>4009.90331357389</v>
+        <v>361.2911507255453</v>
       </c>
       <c r="F23">
-        <v>1201.189488489085</v>
+        <v>832.662442173605</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>100.2</v>
+        <v>163.3</v>
       </c>
       <c r="B24">
-        <v>49905.26531528025</v>
+        <v>6417.125558886211</v>
       </c>
       <c r="C24">
-        <v>17946.87039429508</v>
+        <v>2172.479082974393</v>
       </c>
       <c r="D24">
-        <v>91923.27128277675</v>
+        <v>8463.480479838618</v>
       </c>
       <c r="E24">
-        <v>4471.395592359595</v>
+        <v>722.8909204947884</v>
       </c>
       <c r="F24">
-        <v>1009.348634058256</v>
+        <v>653.9386963405036</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>103</v>
+        <v>165.6</v>
       </c>
       <c r="B25">
-        <v>61694.23951874331</v>
+        <v>9774.251117772532</v>
       </c>
       <c r="C25">
-        <v>17447.96152446439</v>
+        <v>2120.29018445233</v>
       </c>
       <c r="D25">
-        <v>101386.3515049703</v>
+        <v>6960.798191638991</v>
       </c>
       <c r="E25">
-        <v>5256.469917609579</v>
+        <v>614.4906902640321</v>
       </c>
       <c r="F25">
-        <v>875.5343038889565</v>
+        <v>535.2149505074032</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>106.4</v>
+        <v>167.9</v>
       </c>
       <c r="B26">
-        <v>67118.70819437696</v>
+        <v>11021.37667665886</v>
       </c>
       <c r="C26">
-        <v>16162.14361109853</v>
+        <v>2138.101285930267</v>
       </c>
       <c r="D26">
-        <v>102334.3774890624</v>
+        <v>5708.115903439357</v>
       </c>
       <c r="E26">
-        <v>4881.917312555992</v>
+        <v>896.0904600332715</v>
       </c>
       <c r="F26">
-        <v>988.7597601119498</v>
+        <v>566.4912046743017</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>109.4</v>
+        <v>170.5</v>
       </c>
       <c r="B27">
-        <v>66576.18055523014</v>
+        <v>12978.56209105207</v>
       </c>
       <c r="C27">
-        <v>16837.59839342278</v>
+        <v>2739.974704992293</v>
       </c>
       <c r="D27">
-        <v>100969.1062985555</v>
+        <v>6466.82288199629</v>
       </c>
       <c r="E27">
-        <v>4063.782661038118</v>
+        <v>499.6380258593722</v>
       </c>
       <c r="F27">
-        <v>983.9586920734148</v>
+        <v>626.6295789499262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>112.2</v>
+        <v>172.7</v>
       </c>
       <c r="B28">
-        <v>66295.15475869308</v>
+        <v>13852.33436476935</v>
       </c>
       <c r="C28">
-        <v>14828.68952359209</v>
+        <v>2383.098367275533</v>
       </c>
       <c r="D28">
-        <v>96682.18652074903</v>
+        <v>4020.344171544471</v>
       </c>
       <c r="E28">
-        <v>3788.856986288105</v>
+        <v>567.2551969429978</v>
       </c>
       <c r="F28">
-        <v>910.1443619041152</v>
+        <v>678.2851264139165</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>114.9</v>
+        <v>175</v>
       </c>
       <c r="B29">
-        <v>55539.87988346102</v>
+        <v>4809.459923655682</v>
       </c>
       <c r="C29">
-        <v>14187.59882768391</v>
+        <v>2050.909468753468</v>
       </c>
       <c r="D29">
-        <v>89669.44244929281</v>
+        <v>5617.661883344852</v>
       </c>
       <c r="E29">
-        <v>3590.53579992202</v>
+        <v>958.8549667122409</v>
       </c>
       <c r="F29">
-        <v>996.8234006694333</v>
+        <v>899.5613805808159</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>117.8</v>
+        <v>177.2</v>
       </c>
       <c r="B30">
-        <v>56793.10316561908</v>
+        <v>11193.23219737296</v>
       </c>
       <c r="C30">
-        <v>13930.87178393068</v>
+        <v>2314.033131036725</v>
       </c>
       <c r="D30">
-        <v>83368.34696513611</v>
+        <v>5321.183172893034</v>
       </c>
       <c r="E30">
-        <v>2989.005636788074</v>
+        <v>726.4721377958629</v>
       </c>
       <c r="F30">
-        <v>812.5157015655158</v>
+        <v>481.2169280448062</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>120.1</v>
+        <v>179.5</v>
       </c>
       <c r="B31">
-        <v>43290.83197560655</v>
+        <v>17230.35775625929</v>
       </c>
       <c r="C31">
-        <v>13131.05378371261</v>
+        <v>3881.84423251466</v>
       </c>
       <c r="D31">
-        <v>77182.3057190808</v>
+        <v>5128.5008846934</v>
       </c>
       <c r="E31">
-        <v>3457.102403957706</v>
+        <v>808.0719075651025</v>
       </c>
       <c r="F31">
-        <v>811.1682160693057</v>
+        <v>262.4931822117047</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>122.3</v>
+        <v>182.1</v>
       </c>
       <c r="B32">
-        <v>44924.31170689889</v>
+        <v>13037.54317065238</v>
       </c>
       <c r="C32">
-        <v>14059.05395741706</v>
+        <v>3103.717651576671</v>
       </c>
       <c r="D32">
-        <v>74520.44017937571</v>
+        <v>2457.207863250333</v>
       </c>
       <c r="E32">
-        <v>2441.803659511268</v>
+        <v>321.619473391203</v>
       </c>
       <c r="F32">
-        <v>580.3140995077131</v>
+        <v>192.6315564873298</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>124.5</v>
+        <v>184</v>
       </c>
       <c r="B33">
-        <v>45647.79143819124</v>
+        <v>8391.255588862892</v>
       </c>
       <c r="C33">
-        <v>12837.05413112151</v>
+        <v>4392.778996275852</v>
       </c>
       <c r="D33">
-        <v>69218.57463967062</v>
+        <v>2549.339886041947</v>
       </c>
       <c r="E33">
-        <v>2716.504915064827</v>
+        <v>777.2888484179712</v>
       </c>
       <c r="F33">
-        <v>889.4599829461204</v>
+        <v>635.4249838425944</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>126.5</v>
+        <v>186.6</v>
       </c>
       <c r="B34">
-        <v>36752.77301209349</v>
+        <v>15088.44100325599</v>
       </c>
       <c r="C34">
-        <v>11820.690652671</v>
+        <v>2394.652415337862</v>
       </c>
       <c r="D34">
-        <v>69025.06051266602</v>
+        <v>2848.046864598888</v>
       </c>
       <c r="E34">
-        <v>3104.415147386248</v>
+        <v>730.8364142440719</v>
       </c>
       <c r="F34">
-        <v>929.5926042537635</v>
+        <v>615.5633581182191</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>128.9</v>
+        <v>188.9</v>
       </c>
       <c r="B35">
-        <v>40114.75090077595</v>
+        <v>19995.56656214232</v>
       </c>
       <c r="C35">
-        <v>11193.0544785304</v>
+        <v>4782.463516815797</v>
       </c>
       <c r="D35">
-        <v>67534.84356026046</v>
+        <v>1545.364576399261</v>
       </c>
       <c r="E35">
-        <v>2945.907426171948</v>
+        <v>542.4361840133115</v>
       </c>
       <c r="F35">
-        <v>717.7517498229355</v>
+        <v>676.8396122851176</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>130.9</v>
+        <v>191.2</v>
       </c>
       <c r="B36">
-        <v>35759.73247467818</v>
+        <v>19692.69212102864</v>
       </c>
       <c r="C36">
-        <v>14276.69100007991</v>
+        <v>3940.274618293734</v>
       </c>
       <c r="D36">
-        <v>66911.32943325584</v>
+        <v>2462.682288199627</v>
       </c>
       <c r="E36">
-        <v>2563.817658493366</v>
+        <v>1064.035953782555</v>
       </c>
       <c r="F36">
-        <v>647.8843711305786</v>
+        <v>708.1158664520162</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>133.1</v>
+        <v>193.5</v>
       </c>
       <c r="B37">
-        <v>36823.21220597054</v>
+        <v>19399.81767991485</v>
       </c>
       <c r="C37">
-        <v>12294.69117378437</v>
+        <v>5068.085719771671</v>
       </c>
       <c r="D37">
-        <v>66589.46389355077</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2458.518914046928</v>
+        <v>965.635723551798</v>
       </c>
       <c r="F37">
-        <v>1097.030254568986</v>
+        <v>759.3921206189156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>135.2</v>
+        <v>196.1</v>
       </c>
       <c r="B38">
-        <v>22982.44285856777</v>
+        <v>18357.00309430806</v>
       </c>
       <c r="C38">
-        <v>12690.50952141133</v>
+        <v>5009.959138833709</v>
       </c>
       <c r="D38">
-        <v>67331.77406019594</v>
+        <v>1878.706978556933</v>
       </c>
       <c r="E38">
-        <v>2239.824657984415</v>
+        <v>479.1832893778951</v>
       </c>
       <c r="F38">
-        <v>956.6695069420114</v>
+        <v>729.5304948945402</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>137.4</v>
+        <v>198.4</v>
       </c>
       <c r="B39">
-        <v>27925.92258986013</v>
+        <v>23934.12865319439</v>
       </c>
       <c r="C39">
-        <v>13378.50969511578</v>
+        <v>4867.770240311646</v>
       </c>
       <c r="D39">
-        <v>67629.90852049085</v>
+        <v>1146.024690357306</v>
       </c>
       <c r="E39">
-        <v>3304.525913537977</v>
+        <v>830.7830591471384</v>
       </c>
       <c r="F39">
-        <v>635.8153903804186</v>
+        <v>820.8067490614388</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>140</v>
+        <v>200.6</v>
       </c>
       <c r="B40">
-        <v>22736.39863593283</v>
+        <v>33307.90092691167</v>
       </c>
       <c r="C40">
-        <v>12785.23717313013</v>
+        <v>4290.893902594887</v>
       </c>
       <c r="D40">
-        <v>65851.34015538484</v>
+        <v>1609.545979905488</v>
       </c>
       <c r="E40">
-        <v>2552.80921555582</v>
+        <v>1238.40023023076</v>
       </c>
       <c r="F40">
-        <v>772.9877980803548</v>
+        <v>942.462296525429</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>142.3</v>
+        <v>202.9</v>
       </c>
       <c r="B41">
-        <v>20124.1274459203</v>
+        <v>34785.026485798</v>
       </c>
       <c r="C41">
-        <v>12695.41917291206</v>
+        <v>4468.705004072822</v>
       </c>
       <c r="D41">
-        <v>65035.29890932953</v>
+        <v>1056.863691705861</v>
       </c>
       <c r="E41">
-        <v>3110.905982725451</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>831.6403125841446</v>
+        <v>753.7385506923284</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>144.6</v>
+        <v>205.2</v>
       </c>
       <c r="B42">
-        <v>23561.85625590777</v>
+        <v>39472.15204468432</v>
       </c>
       <c r="C42">
-        <v>12965.60117269398</v>
+        <v>5516.516105550775</v>
       </c>
       <c r="D42">
-        <v>61859.25766327423</v>
+        <v>494.1814035062343</v>
       </c>
       <c r="E42">
-        <v>2499.002749895083</v>
+        <v>1121.599769769247</v>
       </c>
       <c r="F42">
-        <v>1140.292827087934</v>
+        <v>945.0148048592271</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>146.9</v>
+        <v>207.8</v>
       </c>
       <c r="B43">
-        <v>16729.58506589524</v>
+        <v>48999.33745907742</v>
       </c>
       <c r="C43">
-        <v>12565.78317247591</v>
+        <v>5638.389524612784</v>
       </c>
       <c r="D43">
-        <v>57443.21641721889</v>
+        <v>1372.888382063182</v>
       </c>
       <c r="E43">
-        <v>2797.099517064715</v>
+        <v>865.1473355953435</v>
       </c>
       <c r="F43">
-        <v>748.9453415917239</v>
+        <v>705.1531791348516</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>149.2</v>
+        <v>210.1</v>
       </c>
       <c r="B44">
-        <v>17857.31387588271</v>
+        <v>51846.46301796375</v>
       </c>
       <c r="C44">
-        <v>12465.96517225784</v>
+        <v>6266.200626090721</v>
       </c>
       <c r="D44">
-        <v>53667.17517116358</v>
+        <v>1240.206093863548</v>
       </c>
       <c r="E44">
-        <v>2835.196284234346</v>
+        <v>686.7471053645872</v>
       </c>
       <c r="F44">
-        <v>1167.597856095513</v>
+        <v>826.4294333017511</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>151.5</v>
+        <v>212.4</v>
       </c>
       <c r="B45">
-        <v>21765.04268587018</v>
+        <v>61593.58857685007</v>
       </c>
       <c r="C45">
-        <v>12356.14717203976</v>
+        <v>6944.011727568656</v>
       </c>
       <c r="D45">
-        <v>49211.13392510828</v>
+        <v>997.5238056639209</v>
       </c>
       <c r="E45">
-        <v>2923.293051403978</v>
+        <v>748.3468751338269</v>
       </c>
       <c r="F45">
-        <v>1266.250370599303</v>
+        <v>887.7056874686497</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>153.9</v>
+        <v>214.6</v>
       </c>
       <c r="B46">
-        <v>16167.02057455276</v>
+        <v>72707.36085056735</v>
       </c>
       <c r="C46">
-        <v>11668.51099789915</v>
+        <v>6677.135389851913</v>
       </c>
       <c r="D46">
-        <v>47390.91697270274</v>
+        <v>1701.045095212088</v>
       </c>
       <c r="E46">
-        <v>2604.785330189679</v>
+        <v>345.9640462174525</v>
       </c>
       <c r="F46">
-        <v>1364.409516168475</v>
+        <v>729.3612349326399</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>156.5</v>
+        <v>216.9</v>
       </c>
       <c r="B47">
-        <v>13577.49662062559</v>
+        <v>87054.48640945368</v>
       </c>
       <c r="C47">
-        <v>12335.23847591351</v>
+        <v>9654.946491329847</v>
       </c>
       <c r="D47">
-        <v>45022.34860759674</v>
+        <v>1208.362807012461</v>
       </c>
       <c r="E47">
-        <v>2853.068632207521</v>
+        <v>807.5638159866953</v>
       </c>
       <c r="F47">
-        <v>1181.581923868411</v>
+        <v>1040.637489099539</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>158.8</v>
+        <v>219.5</v>
       </c>
       <c r="B48">
-        <v>16635.22543061306</v>
+        <v>95641.6718238469</v>
       </c>
       <c r="C48">
-        <v>13275.42047569544</v>
+        <v>7796.819910391859</v>
       </c>
       <c r="D48">
-        <v>40156.30736154143</v>
+        <v>2417.069785569409</v>
       </c>
       <c r="E48">
-        <v>3201.165399377153</v>
+        <v>381.111381812796</v>
       </c>
       <c r="F48">
-        <v>1280.2344383722</v>
+        <v>1180.775863375164</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>161</v>
+        <v>221.8</v>
       </c>
       <c r="B49">
-        <v>8938.705161905407</v>
+        <v>110078.7973827331</v>
       </c>
       <c r="C49">
-        <v>12873.42064939988</v>
+        <v>9124.631011869795</v>
       </c>
       <c r="D49">
-        <v>39044.44182183634</v>
+        <v>344.3874973697748</v>
       </c>
       <c r="E49">
-        <v>2275.866654930715</v>
+        <v>1082.711151582036</v>
       </c>
       <c r="F49">
-        <v>1319.380321810608</v>
+        <v>762.0521175420625</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>163.3</v>
+        <v>224.1</v>
       </c>
       <c r="B50">
-        <v>15146.43397189288</v>
+        <v>131425.9229416194</v>
       </c>
       <c r="C50">
-        <v>12503.6026491818</v>
+        <v>6422.442113347731</v>
       </c>
       <c r="D50">
-        <v>36838.40057578104</v>
+        <v>1121.705209170148</v>
       </c>
       <c r="E50">
-        <v>2623.963422100347</v>
+        <v>1654.310921351279</v>
       </c>
       <c r="F50">
-        <v>1138.032836314398</v>
+        <v>833.3283717089611</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>165.6</v>
+        <v>226.4</v>
       </c>
       <c r="B51">
-        <v>18294.16278188035</v>
+        <v>141573.0485005057</v>
       </c>
       <c r="C51">
-        <v>12393.78464896373</v>
+        <v>8190.253214825668</v>
       </c>
       <c r="D51">
-        <v>34922.35932972572</v>
+        <v>919.0229209705212</v>
       </c>
       <c r="E51">
-        <v>2502.060189269979</v>
+        <v>405.9106911205222</v>
       </c>
       <c r="F51">
-        <v>1016.685350818187</v>
+        <v>624.6046258758606</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>167.9</v>
+        <v>228.6</v>
       </c>
       <c r="B52">
-        <v>19331.8915918677</v>
+        <v>161086.820774223</v>
       </c>
       <c r="C52">
-        <v>12353.96664874566</v>
+        <v>7903.376877108923</v>
       </c>
       <c r="D52">
-        <v>33256.31808367041</v>
+        <v>1102.544210518688</v>
       </c>
       <c r="E52">
-        <v>2770.15695643961</v>
+        <v>253.5278622041442</v>
       </c>
       <c r="F52">
-        <v>1045.337865321977</v>
+        <v>1146.260173339851</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>170.5</v>
+        <v>231.3</v>
       </c>
       <c r="B53">
-        <v>21052.36763794052</v>
+        <v>183067.3594737852</v>
       </c>
       <c r="C53">
-        <v>12890.69412676</v>
+        <v>8619.937735365627</v>
       </c>
       <c r="D53">
-        <v>33547.74971856441</v>
+        <v>1055.04761132782</v>
       </c>
       <c r="E53">
-        <v>2358.440258457453</v>
+        <v>911.0580267158625</v>
       </c>
       <c r="F53">
-        <v>1102.510273021913</v>
+        <v>1116.019254318385</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>172.7</v>
+        <v>233.5</v>
       </c>
       <c r="B54">
-        <v>21725.84736923287</v>
+        <v>213391.1317475025</v>
       </c>
       <c r="C54">
-        <v>12478.69430046446</v>
+        <v>8383.061397648868</v>
       </c>
       <c r="D54">
-        <v>30705.88417885933</v>
+        <v>1238.568900876002</v>
       </c>
       <c r="E54">
-        <v>2413.141514011012</v>
+        <v>1088.675197799485</v>
       </c>
       <c r="F54">
-        <v>1151.656156460321</v>
+        <v>847.6748017823739</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>175</v>
+        <v>235.5</v>
       </c>
       <c r="B55">
-        <v>12473.57617922034</v>
+        <v>239358.1974508819</v>
       </c>
       <c r="C55">
-        <v>12088.87630024638</v>
+        <v>7616.810181542732</v>
       </c>
       <c r="D55">
-        <v>31889.84293280401</v>
+        <v>134.4973459198009</v>
       </c>
       <c r="E55">
-        <v>2791.238281180644</v>
+        <v>1578.327171511871</v>
       </c>
       <c r="F55">
-        <v>1370.30867096411</v>
+        <v>1260.088935840547</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>177.2</v>
+        <v>238.1</v>
       </c>
       <c r="B56">
-        <v>18657.0559105127</v>
+        <v>272445.3828652751</v>
       </c>
       <c r="C56">
-        <v>12296.87647395082</v>
+        <v>9278.683600604756</v>
       </c>
       <c r="D56">
-        <v>31197.97739309893</v>
+        <v>1463.204324476748</v>
       </c>
       <c r="E56">
-        <v>2545.939536734206</v>
+        <v>671.8747373379711</v>
       </c>
       <c r="F56">
-        <v>949.4545544025177</v>
+        <v>940.227310116172</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>179.5</v>
+        <v>240.4</v>
       </c>
       <c r="B57">
-        <v>24484.78472050017</v>
+        <v>321562.5084241614</v>
       </c>
       <c r="C57">
-        <v>13807.05847373275</v>
+        <v>8796.494702082691</v>
       </c>
       <c r="D57">
-        <v>30591.93614704362</v>
+        <v>300.5220362771142</v>
       </c>
       <c r="E57">
-        <v>2614.036303903838</v>
+        <v>813.4745071072107</v>
       </c>
       <c r="F57">
-        <v>728.1070689063072</v>
+        <v>721.5035642830716</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>182.1</v>
+        <v>242.7</v>
       </c>
       <c r="B58">
-        <v>20055.26076657299</v>
+        <v>345539.6339830476</v>
       </c>
       <c r="C58">
-        <v>12963.78595174711</v>
+        <v>8994.305803560645</v>
       </c>
       <c r="D58">
-        <v>27453.36778193762</v>
+        <v>917.8397480774875</v>
       </c>
       <c r="E58">
-        <v>2112.319605921681</v>
+        <v>1165.074276876458</v>
       </c>
       <c r="F58">
-        <v>655.2794766062433</v>
+        <v>1052.77981844997</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>184</v>
+        <v>245.3</v>
       </c>
       <c r="B59">
-        <v>15235.99326177999</v>
+        <v>388246.8193974408</v>
       </c>
       <c r="C59">
-        <v>14205.24064721913</v>
+        <v>8446.179222622653</v>
       </c>
       <c r="D59">
-        <v>27204.02936128323</v>
+        <v>386.5467266344203</v>
       </c>
       <c r="E59">
-        <v>2556.834326627025</v>
+        <v>948.6218427025547</v>
       </c>
       <c r="F59">
-        <v>1095.905466848504</v>
+        <v>702.9181927255946</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>186.6</v>
+        <v>247.5</v>
       </c>
       <c r="B60">
-        <v>21696.46930785281</v>
+        <v>432650.5916711581</v>
       </c>
       <c r="C60">
-        <v>12141.96812523347</v>
+        <v>9179.302884905908</v>
       </c>
       <c r="D60">
-        <v>27035.46099617722</v>
+        <v>2280.068016182609</v>
       </c>
       <c r="E60">
-        <v>2495.117628644871</v>
+        <v>1576.23901378618</v>
       </c>
       <c r="F60">
-        <v>1073.077874548441</v>
+        <v>484.5737401895849</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>188.9</v>
+        <v>249.8</v>
       </c>
       <c r="B61">
-        <v>26394.19811784028</v>
+        <v>479817.7172300445</v>
       </c>
       <c r="C61">
-        <v>14472.1501250154</v>
+        <v>9297.113986383843</v>
       </c>
       <c r="D61">
-        <v>25319.41975012191</v>
+        <v>2847.385727982975</v>
       </c>
       <c r="E61">
-        <v>2293.214395814502</v>
+        <v>867.8387835554199</v>
       </c>
       <c r="F61">
-        <v>1131.73038905223</v>
+        <v>645.8499943564843</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>191.2</v>
+        <v>252.1</v>
       </c>
       <c r="B62">
-        <v>25881.92692782775</v>
+        <v>528324.8427889307</v>
       </c>
       <c r="C62">
-        <v>13572.33212479733</v>
+        <v>9614.925087861782</v>
       </c>
       <c r="D62">
-        <v>25823.37850406661</v>
+        <v>584.7034397833413</v>
       </c>
       <c r="E62">
-        <v>2801.311162984135</v>
+        <v>309.4385533246632</v>
       </c>
       <c r="F62">
-        <v>1160.382903556019</v>
+        <v>727.126248523383</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>193.5</v>
+        <v>254.4</v>
       </c>
       <c r="B63">
-        <v>25379.65573781522</v>
+        <v>572681.968347817</v>
       </c>
       <c r="C63">
-        <v>14642.51412457925</v>
+        <v>9322.736189339717</v>
       </c>
       <c r="D63">
-        <v>22947.33725801128</v>
+        <v>762.0211515837218</v>
       </c>
       <c r="E63">
-        <v>2689.407930153766</v>
+        <v>1191.038323093906</v>
       </c>
       <c r="F63">
-        <v>1209.035418059809</v>
+        <v>768.4025026902815</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>196.1</v>
+        <v>257</v>
       </c>
       <c r="B64">
-        <v>24100.13178388793</v>
+        <v>620409.1537622102</v>
       </c>
       <c r="C64">
-        <v>14519.2416025936</v>
+        <v>10904.60960840173</v>
       </c>
       <c r="D64">
-        <v>24358.76889290529</v>
+        <v>2600.728130140669</v>
       </c>
       <c r="E64">
-        <v>2187.691232171609</v>
+        <v>1744.585888920007</v>
       </c>
       <c r="F64">
-        <v>1176.207825759745</v>
+        <v>818.5408769659069</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>198.4</v>
+        <v>259</v>
       </c>
       <c r="B65">
-        <v>29467.86059387539</v>
+        <v>644786.2194655896</v>
       </c>
       <c r="C65">
-        <v>14319.42360237553</v>
+        <v>11658.35839229559</v>
       </c>
       <c r="D65">
-        <v>23212.72764684997</v>
+        <v>596.656575184461</v>
       </c>
       <c r="E65">
-        <v>2525.78799934124</v>
+        <v>1994.23786263239</v>
       </c>
       <c r="F65">
-        <v>1264.860340263535</v>
+        <v>460.9550110240796</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>200.6</v>
+        <v>261.6</v>
       </c>
       <c r="B66">
-        <v>38641.34032516775</v>
+        <v>676833.4048799828</v>
       </c>
       <c r="C66">
-        <v>13687.42377607998</v>
+        <v>10570.2318113576</v>
       </c>
       <c r="D66">
-        <v>23280.8621071449</v>
+        <v>655.3635537414084</v>
       </c>
       <c r="E66">
-        <v>2920.489254894799</v>
+        <v>607.7854284584864</v>
       </c>
       <c r="F66">
-        <v>1384.006223701942</v>
+        <v>471.0933852997041</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>202.9</v>
+        <v>263.9</v>
       </c>
       <c r="B67">
-        <v>39909.06913515522</v>
+        <v>697340.530438869</v>
       </c>
       <c r="C67">
-        <v>13807.60577586191</v>
+        <v>10168.04291283555</v>
       </c>
       <c r="D67">
-        <v>22314.82086108957</v>
+        <v>1952.681265541774</v>
       </c>
       <c r="E67">
-        <v>1668.586022064431</v>
+        <v>839.3851982277338</v>
       </c>
       <c r="F67">
-        <v>1192.658738205732</v>
+        <v>682.3696394666036</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>205.2</v>
+        <v>266.2</v>
       </c>
       <c r="B68">
-        <v>44386.79794514268</v>
+        <v>707997.6559977552</v>
       </c>
       <c r="C68">
-        <v>14797.78777564384</v>
+        <v>10215.85401431349</v>
       </c>
       <c r="D68">
-        <v>21338.77961503427</v>
+        <v>3299.998977342148</v>
       </c>
       <c r="E68">
-        <v>2776.682789234063</v>
+        <v>980.9849679969734</v>
       </c>
       <c r="F68">
-        <v>1381.311252709522</v>
+        <v>823.6458936335022</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>207.8</v>
+        <v>268.7</v>
       </c>
       <c r="B69">
-        <v>53677.27399121551</v>
+        <v>748251.4881269797</v>
       </c>
       <c r="C69">
-        <v>14854.51525365817</v>
+        <v>9953.039994180817</v>
       </c>
       <c r="D69">
-        <v>21750.21124992826</v>
+        <v>3854.909533646896</v>
       </c>
       <c r="E69">
-        <v>2504.966091251908</v>
+        <v>1170.549935137456</v>
       </c>
       <c r="F69">
-        <v>1138.483660409458</v>
+        <v>424.1635612062184</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>210.1</v>
+        <v>271</v>
       </c>
       <c r="B70">
-        <v>56315.00280120298</v>
+        <v>764398.6136858661</v>
       </c>
       <c r="C70">
-        <v>15424.69725344009</v>
+        <v>11700.85109565875</v>
       </c>
       <c r="D70">
-        <v>21204.17000387295</v>
+        <v>2732.227245447262</v>
       </c>
       <c r="E70">
-        <v>2313.06285842154</v>
+        <v>492.1497049066957</v>
       </c>
       <c r="F70">
-        <v>1257.136174913247</v>
+        <v>245.439815373117</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>212.4</v>
+        <v>273.3</v>
       </c>
       <c r="B71">
-        <v>65852.73161119045</v>
+        <v>743925.7392447523</v>
       </c>
       <c r="C71">
-        <v>16044.87925322202</v>
+        <v>10768.66219713669</v>
       </c>
       <c r="D71">
-        <v>20548.12875781765</v>
+        <v>3349.544957247635</v>
       </c>
       <c r="E71">
-        <v>2361.159625591168</v>
+        <v>1053.749474675935</v>
       </c>
       <c r="F71">
-        <v>1315.788689417037</v>
+        <v>596.7160695400165</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>214.6</v>
+        <v>275.5</v>
       </c>
       <c r="B72">
-        <v>76766.2113424828</v>
+        <v>721659.5115184695</v>
       </c>
       <c r="C72">
-        <v>15722.87942692647</v>
+        <v>11561.78585941993</v>
       </c>
       <c r="D72">
-        <v>20856.26321811256</v>
+        <v>2623.066246795817</v>
       </c>
       <c r="E72">
-        <v>1945.860881144728</v>
+        <v>621.3666457595605</v>
       </c>
       <c r="F72">
-        <v>1154.934572855445</v>
+        <v>588.3716170040067</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>216.9</v>
+        <v>277.8</v>
       </c>
       <c r="B73">
-        <v>90903.94015247027</v>
+        <v>651166.6370773558</v>
       </c>
       <c r="C73">
-        <v>18643.0614267084</v>
+        <v>12749.59696089787</v>
       </c>
       <c r="D73">
-        <v>19950.22197205725</v>
+        <v>2210.383958596176</v>
       </c>
       <c r="E73">
-        <v>2393.957648314359</v>
+        <v>1152.966415528804</v>
       </c>
       <c r="F73">
-        <v>1463.587087359234</v>
+        <v>509.6478711709053</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>219.5</v>
+        <v>280.1</v>
       </c>
       <c r="B74">
-        <v>99254.41619854297</v>
+        <v>603833.7626362422</v>
       </c>
       <c r="C74">
-        <v>16719.78890472274</v>
+        <v>14307.4080623758</v>
       </c>
       <c r="D74">
-        <v>20691.65360695124</v>
+        <v>4917.701670396549</v>
       </c>
       <c r="E74">
-        <v>1952.240950332205</v>
+        <v>844.5661852980434</v>
       </c>
       <c r="F74">
-        <v>1600.75949505917</v>
+        <v>180.9241253378038</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>221.8</v>
+        <v>282.4</v>
       </c>
       <c r="B75">
-        <v>113482.1450085304</v>
+        <v>540820.8881951283</v>
       </c>
       <c r="C75">
-        <v>17989.97090450467</v>
+        <v>14365.21916385377</v>
       </c>
       <c r="D75">
-        <v>18205.61236089594</v>
+        <v>4515.019382196915</v>
       </c>
       <c r="E75">
-        <v>2640.337717501836</v>
+        <v>1356.165955067291</v>
       </c>
       <c r="F75">
-        <v>1179.41200956296</v>
+        <v>792.2003795047034</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>224.1</v>
+        <v>285</v>
       </c>
       <c r="B76">
-        <v>134619.8738185179</v>
+        <v>503148.0736095216</v>
       </c>
       <c r="C76">
-        <v>15230.1529042866</v>
+        <v>17017.09258291578</v>
       </c>
       <c r="D76">
-        <v>18569.57111484063</v>
+        <v>2593.726360753863</v>
       </c>
       <c r="E76">
-        <v>3198.434484671468</v>
+        <v>969.7135208933873</v>
       </c>
       <c r="F76">
-        <v>1248.064524066749</v>
+        <v>332.3387537803279</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>226.4</v>
+        <v>287.3</v>
       </c>
       <c r="B77">
-        <v>144557.6026285054</v>
+        <v>467525.1991684078</v>
       </c>
       <c r="C77">
-        <v>16940.33490406852</v>
+        <v>16764.90368439371</v>
       </c>
       <c r="D77">
-        <v>17953.5298687853</v>
+        <v>5861.044072554236</v>
       </c>
       <c r="E77">
-        <v>1936.5312518411</v>
+        <v>1061.313290662631</v>
       </c>
       <c r="F77">
-        <v>1036.717038570539</v>
+        <v>383.6150079472264</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>228.6</v>
+        <v>289.6</v>
       </c>
       <c r="B78">
-        <v>163871.0823597977</v>
+        <v>435112.3247272941</v>
       </c>
       <c r="C78">
-        <v>16598.33507777296</v>
+        <v>18122.71478587165</v>
       </c>
       <c r="D78">
-        <v>17741.66432908023</v>
+        <v>6708.361784354602</v>
       </c>
       <c r="E78">
-        <v>1771.232507394659</v>
+        <v>602.9130604318702</v>
       </c>
       <c r="F78">
-        <v>1555.862922008946</v>
+        <v>494.891262114126</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>231.3</v>
+        <v>291.9</v>
       </c>
       <c r="B79">
-        <v>185605.8074845657</v>
+        <v>396019.4502861804</v>
       </c>
       <c r="C79">
-        <v>17247.24438186478</v>
+        <v>20440.52588734959</v>
       </c>
       <c r="D79">
-        <v>17208.92025762399</v>
+        <v>6475.679496154975</v>
       </c>
       <c r="E79">
-        <v>2412.91132102857</v>
+        <v>1244.512830201118</v>
       </c>
       <c r="F79">
-        <v>1522.541960774264</v>
+        <v>366.1675162810246</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>233.5</v>
+        <v>294.2</v>
       </c>
       <c r="B80">
-        <v>215729.287215858</v>
+        <v>391576.5758450667</v>
       </c>
       <c r="C80">
-        <v>16955.24455556925</v>
+        <v>24288.33698882752</v>
       </c>
       <c r="D80">
-        <v>16997.05471791892</v>
+        <v>7592.997207955348</v>
       </c>
       <c r="E80">
-        <v>2577.612576582133</v>
+        <v>1676.112599970357</v>
       </c>
       <c r="F80">
-        <v>1251.687844212672</v>
+        <v>347.4437704479236</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>235.5</v>
+        <v>296.5</v>
       </c>
       <c r="B81">
-        <v>241514.2687897601</v>
+        <v>362433.7014039529</v>
       </c>
       <c r="C81">
-        <v>16138.88107711875</v>
+        <v>28296.14809030546</v>
       </c>
       <c r="D81">
-        <v>15533.54059091429</v>
+        <v>5420.314919755714</v>
       </c>
       <c r="E81">
-        <v>3055.52280890355</v>
+        <v>827.7123697395969</v>
       </c>
       <c r="F81">
-        <v>1661.820465520315</v>
+        <v>518.7200246148226</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>238.1</v>
+        <v>299.1</v>
       </c>
       <c r="B82">
-        <v>274364.744835833</v>
+        <v>325480.8868183462</v>
       </c>
       <c r="C82">
-        <v>17735.60855513311</v>
+        <v>31018.02150936747</v>
       </c>
       <c r="D82">
-        <v>16394.97222580829</v>
+        <v>6229.021898312647</v>
       </c>
       <c r="E82">
-        <v>2133.806110921396</v>
+        <v>1071.259935565697</v>
       </c>
       <c r="F82">
-        <v>1338.992873220252</v>
+        <v>418.8583988904471</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>240.4</v>
+        <v>301.4</v>
       </c>
       <c r="B83">
-        <v>323272.4736458203</v>
+        <v>301548.0123772325</v>
       </c>
       <c r="C83">
-        <v>17195.79055491502</v>
+        <v>32075.83261084543</v>
       </c>
       <c r="D83">
-        <v>14818.93097975298</v>
+        <v>6566.33961011302</v>
       </c>
       <c r="E83">
-        <v>2261.902878091028</v>
+        <v>1442.859705334944</v>
       </c>
       <c r="F83">
-        <v>1117.645387724041</v>
+        <v>620.1346530573458</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>242.7</v>
+        <v>303.7</v>
       </c>
       <c r="B84">
-        <v>347040.2024558078</v>
+        <v>284475.1379361189</v>
       </c>
       <c r="C84">
-        <v>17335.97255469695</v>
+        <v>34933.64371232338</v>
       </c>
       <c r="D84">
-        <v>15022.88973369767</v>
+        <v>7363.657321913393</v>
       </c>
       <c r="E84">
-        <v>2599.99964526066</v>
+        <v>1694.459475104184</v>
       </c>
       <c r="F84">
-        <v>1446.29790222783</v>
+        <v>641.4109072242453</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>245.3</v>
+        <v>305.9</v>
       </c>
       <c r="B85">
-        <v>389510.6785018806</v>
+        <v>269558.9102098361</v>
       </c>
       <c r="C85">
-        <v>16722.70003271129</v>
+        <v>38566.76737460661</v>
       </c>
       <c r="D85">
-        <v>14024.32136859166</v>
+        <v>6737.178611461575</v>
       </c>
       <c r="E85">
-        <v>2368.282947278502</v>
+        <v>1462.076646187806</v>
       </c>
       <c r="F85">
-        <v>1093.470309927767</v>
+        <v>413.0664546882355</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>247.5</v>
+        <v>308.2</v>
       </c>
       <c r="B86">
-        <v>433714.158233173</v>
+        <v>245526.0357687224</v>
       </c>
       <c r="C86">
-        <v>17400.70020641574</v>
+        <v>41944.57847608456</v>
       </c>
       <c r="D86">
-        <v>15522.45582888658</v>
+        <v>7354.496323261941</v>
       </c>
       <c r="E86">
-        <v>2982.984202832061</v>
+        <v>1923.676415957049</v>
       </c>
       <c r="F86">
-        <v>872.6161933661742</v>
+        <v>394.3427088551341</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>249.8</v>
+        <v>310.8</v>
       </c>
       <c r="B87">
-        <v>480671.8870431604</v>
+        <v>233993.2211831155</v>
       </c>
       <c r="C87">
-        <v>17460.88220619765</v>
+        <v>38956.45189514657</v>
       </c>
       <c r="D87">
-        <v>15676.41458283127</v>
+        <v>6683.203301818889</v>
       </c>
       <c r="E87">
-        <v>2261.080970001693</v>
+        <v>937.223981783146</v>
       </c>
       <c r="F87">
-        <v>1031.268707869964</v>
+        <v>344.481083130759</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>252.1</v>
+        <v>313.1</v>
       </c>
       <c r="B88">
-        <v>528969.6158531479</v>
+        <v>230440.3467420019</v>
       </c>
       <c r="C88">
-        <v>17721.06420597958</v>
+        <v>36674.26299662451</v>
       </c>
       <c r="D88">
-        <v>13000.37333677596</v>
+        <v>7690.521013619255</v>
       </c>
       <c r="E88">
-        <v>1689.177737171325</v>
+        <v>1178.823751552389</v>
       </c>
       <c r="F88">
-        <v>1109.921222373754</v>
+        <v>745.757337297658</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>254.4</v>
+        <v>315.3</v>
       </c>
       <c r="B89">
-        <v>573117.3446631354</v>
+        <v>241514.1190157191</v>
       </c>
       <c r="C89">
-        <v>17371.24620576151</v>
+        <v>32017.38665890775</v>
       </c>
       <c r="D89">
-        <v>12764.33209072065</v>
+        <v>5224.042303167436</v>
       </c>
       <c r="E89">
-        <v>2557.274504340956</v>
+        <v>1326.440922636015</v>
       </c>
       <c r="F89">
-        <v>1148.573736877543</v>
+        <v>187.4128847616478</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>257</v>
+        <v>317.6</v>
       </c>
       <c r="B90">
-        <v>620607.8207092081</v>
+        <v>213081.2445746055</v>
       </c>
       <c r="C90">
-        <v>18887.97368377587</v>
+        <v>26865.19776038568</v>
       </c>
       <c r="D90">
-        <v>14135.76372561465</v>
+        <v>5621.360014967802</v>
       </c>
       <c r="E90">
-        <v>3095.557806358802</v>
+        <v>1328.040692405255</v>
       </c>
       <c r="F90">
-        <v>1195.746144577479</v>
+        <v>638.6891389285469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>259</v>
+        <v>319.9</v>
       </c>
       <c r="B91">
-        <v>644802.8022831103</v>
+        <v>222908.3701334918</v>
       </c>
       <c r="C91">
-        <v>19591.61020532536</v>
+        <v>21013.00886186364</v>
       </c>
       <c r="D91">
-        <v>11772.24959861002</v>
+        <v>6358.677726768168</v>
       </c>
       <c r="E91">
-        <v>3333.468038680219</v>
+        <v>1189.640462174502</v>
       </c>
       <c r="F91">
-        <v>835.8787658851222</v>
+        <v>469.9653930954455</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>261.6</v>
+        <v>322.2</v>
       </c>
       <c r="B92">
-        <v>676613.2783291831</v>
+        <v>225775.495692378</v>
       </c>
       <c r="C92">
-        <v>18438.33768333971</v>
+        <v>17000.81996334158</v>
       </c>
       <c r="D92">
-        <v>11363.68123350402</v>
+        <v>8355.995438568549</v>
       </c>
       <c r="E92">
-        <v>1931.751340698062</v>
+        <v>1431.240231943741</v>
       </c>
       <c r="F92">
-        <v>843.0511735850585</v>
+        <v>571.2416472623449</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>263.9</v>
+        <v>324.4</v>
       </c>
       <c r="B93">
-        <v>696911.0071391705</v>
+        <v>221439.2679660954</v>
       </c>
       <c r="C93">
-        <v>17978.51968312165</v>
+        <v>14163.94362562482</v>
       </c>
       <c r="D93">
-        <v>12247.63998744871</v>
+        <v>8059.516728116731</v>
       </c>
       <c r="E93">
-        <v>2149.848107867697</v>
+        <v>1568.857403027363</v>
       </c>
       <c r="F93">
-        <v>1051.703688088848</v>
+        <v>302.8971947263352</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>266.2</v>
+        <v>327.1</v>
       </c>
       <c r="B94">
-        <v>707358.7359491581</v>
+        <v>209599.8066656575</v>
       </c>
       <c r="C94">
-        <v>17968.70168290358</v>
+        <v>10970.50448388152</v>
       </c>
       <c r="D94">
-        <v>13181.5987413934</v>
+        <v>8722.020128925862</v>
       </c>
       <c r="E94">
-        <v>2277.944875037329</v>
+        <v>2466.387567539081</v>
       </c>
       <c r="F94">
-        <v>1190.356202592638</v>
+        <v>382.656275704868</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>268.7</v>
+        <v>329.3</v>
       </c>
       <c r="B95">
-        <v>747384.9629165358</v>
+        <v>221343.5789393748</v>
       </c>
       <c r="C95">
-        <v>17643.24733484045</v>
+        <v>9823.628146164774</v>
       </c>
       <c r="D95">
-        <v>13287.20608263763</v>
+        <v>9225.541418474029</v>
       </c>
       <c r="E95">
-        <v>2452.832665439099</v>
+        <v>2564.004738622703</v>
       </c>
       <c r="F95">
-        <v>788.0219792271919</v>
+        <v>584.3118231688583</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>271</v>
+        <v>331.6</v>
       </c>
       <c r="B96">
-        <v>763322.6917265232</v>
+        <v>222070.7044982611</v>
       </c>
       <c r="C96">
-        <v>19333.42933462236</v>
+        <v>9051.439247642709</v>
       </c>
       <c r="D96">
-        <v>11751.16483658231</v>
+        <v>9012.85913027441</v>
       </c>
       <c r="E96">
-        <v>1760.92943260873</v>
+        <v>2995.604508391947</v>
       </c>
       <c r="F96">
-        <v>606.6744937309812</v>
+        <v>665.5880773357577</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>273.3</v>
+        <v>333.9</v>
       </c>
       <c r="B97">
-        <v>742640.4205365105</v>
+        <v>219557.8300571475</v>
       </c>
       <c r="C97">
-        <v>18343.61133440429</v>
+        <v>9259.250349120648</v>
       </c>
       <c r="D97">
-        <v>11955.123590527</v>
+        <v>10690.17684207478</v>
       </c>
       <c r="E97">
-        <v>2309.026199778362</v>
+        <v>4497.204278161191</v>
       </c>
       <c r="F97">
-        <v>955.3270082347711</v>
+        <v>306.8643315026565</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>275.5</v>
+        <v>336.5</v>
       </c>
       <c r="B98">
-        <v>720173.9002678029</v>
+        <v>207995.0154715406</v>
       </c>
       <c r="C98">
-        <v>19081.61150810874</v>
+        <v>9511.123768182657</v>
       </c>
       <c r="D98">
-        <v>10833.25805082191</v>
+        <v>9018.883820631723</v>
       </c>
       <c r="E98">
-        <v>1863.727455331921</v>
+        <v>5400.751843987291</v>
       </c>
       <c r="F98">
-        <v>944.4728916731785</v>
+        <v>777.0027057782809</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>277.8</v>
+        <v>338.8</v>
       </c>
       <c r="B99">
-        <v>649471.6290777903</v>
+        <v>218202.1410304269</v>
       </c>
       <c r="C99">
-        <v>20211.79350789067</v>
+        <v>9218.934869660592</v>
       </c>
       <c r="D99">
-        <v>10007.21680476661</v>
+        <v>10626.20153243209</v>
       </c>
       <c r="E99">
-        <v>2381.824222501552</v>
+        <v>6612.351613756529</v>
       </c>
       <c r="F99">
-        <v>863.1254061769679</v>
+        <v>278.2789599451804</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>280.1</v>
+        <v>341.1</v>
       </c>
       <c r="B100">
-        <v>601929.3578877777</v>
+        <v>213499.2665893132</v>
       </c>
       <c r="C100">
-        <v>21711.97550767258</v>
+        <v>8346.745971138545</v>
       </c>
       <c r="D100">
-        <v>12301.1755587113</v>
+        <v>8833.51924423247</v>
       </c>
       <c r="E100">
-        <v>2059.92098967118</v>
+        <v>9913.951383525777</v>
       </c>
       <c r="F100">
-        <v>531.7779206807578</v>
+        <v>319.5552141120789</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>282.4</v>
+        <v>343.4</v>
       </c>
       <c r="B101">
-        <v>538707.0866977653</v>
+        <v>204926.3921481994</v>
       </c>
       <c r="C101">
-        <v>21712.15750745452</v>
+        <v>8674.557072616484</v>
       </c>
       <c r="D101">
-        <v>11485.13431265599</v>
+        <v>11080.83695603284</v>
       </c>
       <c r="E101">
-        <v>2558.017756840816</v>
+        <v>12425.55115329502</v>
       </c>
       <c r="F101">
-        <v>1140.430435184547</v>
+        <v>570.8314682789776</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>285</v>
+        <v>345.6</v>
       </c>
       <c r="B102">
-        <v>500797.5627438381</v>
+        <v>210910.1644219168</v>
       </c>
       <c r="C102">
-        <v>24298.88498546885</v>
+        <v>9357.680734899721</v>
       </c>
       <c r="D102">
-        <v>9096.565947549982</v>
+        <v>10394.358245581</v>
       </c>
       <c r="E102">
-        <v>2156.301058858659</v>
+        <v>15713.16832437864</v>
       </c>
       <c r="F102">
-        <v>677.6028428844834</v>
+        <v>442.4870157429677</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>287.3</v>
+        <v>348.3</v>
       </c>
       <c r="B103">
-        <v>464965.2915538255</v>
+        <v>228910.703121479</v>
       </c>
       <c r="C103">
-        <v>23989.06698525078</v>
+        <v>8344.241593156443</v>
       </c>
       <c r="D103">
-        <v>11950.52470149466</v>
+        <v>11156.86164639013</v>
       </c>
       <c r="E103">
-        <v>2234.39782602829</v>
+        <v>20160.69848889035</v>
       </c>
       <c r="F103">
-        <v>726.2553573882728</v>
+        <v>152.2460967215016</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>289.6</v>
+        <v>350.2</v>
       </c>
       <c r="B104">
-        <v>432343.020363813</v>
+        <v>240954.4155396893</v>
       </c>
       <c r="C104">
-        <v>25289.2489850327</v>
+        <v>10193.30293785561</v>
       </c>
       <c r="D104">
-        <v>12384.48345543935</v>
+        <v>11688.99366918175</v>
       </c>
       <c r="E104">
-        <v>1762.494593197921</v>
+        <v>25006.36786391712</v>
       </c>
       <c r="F104">
-        <v>834.9078718920622</v>
+        <v>305.0395240767658</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>291.9</v>
+        <v>352.8</v>
       </c>
       <c r="B105">
-        <v>393040.7491738005</v>
+        <v>251541.6009540826</v>
       </c>
       <c r="C105">
-        <v>27549.43098481463</v>
+        <v>7575.176356917619</v>
       </c>
       <c r="D105">
-        <v>11738.44220938404</v>
+        <v>12057.7006477387</v>
       </c>
       <c r="E105">
-        <v>2390.591360367554</v>
+        <v>31589.91542974322</v>
       </c>
       <c r="F105">
-        <v>703.5603863958522</v>
+        <v>315.1778983523903</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>294.2</v>
+        <v>355.1</v>
       </c>
       <c r="B106">
-        <v>388388.4779837879</v>
+        <v>270138.7265129689</v>
       </c>
       <c r="C106">
-        <v>31339.61298459656</v>
+        <v>8032.987458395554</v>
       </c>
       <c r="D106">
-        <v>12442.40096332874</v>
+        <v>12465.01835953906</v>
       </c>
       <c r="E106">
-        <v>2808.688127537185</v>
+        <v>40071.51519951247</v>
       </c>
       <c r="F106">
-        <v>682.2129008996421</v>
+        <v>746.4541525192899</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>296.5</v>
+        <v>357.4</v>
       </c>
       <c r="B107">
-        <v>359036.2067937754</v>
+        <v>296075.8520718551</v>
       </c>
       <c r="C107">
-        <v>35289.79498437848</v>
+        <v>9890.798559873507</v>
       </c>
       <c r="D107">
-        <v>9856.359717273426</v>
+        <v>16782.33607133943</v>
       </c>
       <c r="E107">
-        <v>1946.784894706817</v>
+        <v>50813.11496928172</v>
       </c>
       <c r="F107">
-        <v>850.8654154034315</v>
+        <v>497.7304066861885</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>299.1</v>
+        <v>360</v>
       </c>
       <c r="B108">
-        <v>321846.6828398482</v>
+        <v>341683.0374862483</v>
       </c>
       <c r="C108">
-        <v>37946.52246239283</v>
+        <v>10822.67197893552</v>
       </c>
       <c r="D108">
-        <v>10197.79135216742</v>
+        <v>17181.04304989638</v>
       </c>
       <c r="E108">
-        <v>2175.068196724659</v>
+        <v>64206.66253510781</v>
       </c>
       <c r="F108">
-        <v>748.0378231033676</v>
+        <v>577.8687809618131</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>301.4</v>
+        <v>362.3</v>
       </c>
       <c r="B109">
-        <v>297704.4116498357</v>
+        <v>387030.1630451346</v>
       </c>
       <c r="C109">
-        <v>38946.70446217476</v>
+        <v>10340.48308041345</v>
       </c>
       <c r="D109">
-        <v>10121.75010611211</v>
+        <v>18518.36076169674</v>
       </c>
       <c r="E109">
-        <v>2533.164963894294</v>
+        <v>81878.26230487705</v>
       </c>
       <c r="F109">
-        <v>946.6903376071572</v>
+        <v>729.1450351287125</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>303.7</v>
+        <v>364.2</v>
       </c>
       <c r="B110">
-        <v>280422.1404598232</v>
+        <v>435993.875463345</v>
       </c>
       <c r="C110">
-        <v>41746.88646195669</v>
+        <v>7849.544425112622</v>
       </c>
       <c r="D110">
-        <v>10505.70886005681</v>
+        <v>20340.49278448836</v>
       </c>
       <c r="E110">
-        <v>2771.261731063923</v>
+        <v>104133.9316799038</v>
       </c>
       <c r="F110">
-        <v>965.3428521109465</v>
+        <v>801.9384624839768</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>305.9</v>
+        <v>366.8</v>
       </c>
       <c r="B111">
-        <v>265305.6201911155</v>
+        <v>510391.0608777381</v>
       </c>
       <c r="C111">
-        <v>45324.88663566114</v>
+        <v>9261.417844174644</v>
       </c>
       <c r="D111">
-        <v>9483.84332035172</v>
+        <v>23009.19976304529</v>
       </c>
       <c r="E111">
-        <v>2525.962986617486</v>
+        <v>133007.4792457299</v>
       </c>
       <c r="F111">
-        <v>734.4887355493544</v>
+        <v>602.0768367596013</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>308.2</v>
+        <v>369.1</v>
       </c>
       <c r="B112">
-        <v>241063.349001103</v>
+        <v>611318.1864366245</v>
       </c>
       <c r="C112">
-        <v>48645.06863544307</v>
+        <v>10409.22894565258</v>
       </c>
       <c r="D112">
-        <v>9687.802074296411</v>
+        <v>26326.51747484566</v>
       </c>
       <c r="E112">
-        <v>2974.059753787113</v>
+        <v>170269.0790154992</v>
       </c>
       <c r="F112">
-        <v>713.1412500531437</v>
+        <v>763.3530909264998</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>310.8</v>
+        <v>371.4</v>
       </c>
       <c r="B113">
-        <v>229293.8250471757</v>
+        <v>721085.3119955107</v>
       </c>
       <c r="C113">
-        <v>45591.79611345741</v>
+        <v>11327.04004713053</v>
       </c>
       <c r="D113">
-        <v>8549.233709190401</v>
+        <v>31423.83518664604</v>
       </c>
       <c r="E113">
-        <v>1972.343055804955</v>
+        <v>211200.6787852684</v>
       </c>
       <c r="F113">
-        <v>660.3136577530798</v>
+        <v>514.6293450933994</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>313.1</v>
+        <v>373.7</v>
       </c>
       <c r="B114">
-        <v>225531.5538571632</v>
+        <v>843292.4375543969</v>
       </c>
       <c r="C114">
-        <v>43251.97811323933</v>
+        <v>11484.85114860847</v>
       </c>
       <c r="D114">
-        <v>9143.192463135078</v>
+        <v>35681.15289844642</v>
       </c>
       <c r="E114">
-        <v>2200.439822974587</v>
+        <v>257542.2785550376</v>
       </c>
       <c r="F114">
-        <v>1058.966172256869</v>
+        <v>595.905599260298</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>315.3</v>
+        <v>375.9</v>
       </c>
       <c r="B115">
-        <v>236405.0335884555</v>
+        <v>964696.2098281146</v>
       </c>
       <c r="C115">
-        <v>38539.97828694378</v>
+        <v>13647.97481089171</v>
       </c>
       <c r="D115">
-        <v>6281.32692343001</v>
+        <v>38574.67418799458</v>
       </c>
       <c r="E115">
-        <v>2335.14107852815</v>
+        <v>287509.8957261213</v>
       </c>
       <c r="F115">
-        <v>498.1120556952771</v>
+        <v>787.5611467242882</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>317.6</v>
+        <v>378.6</v>
       </c>
       <c r="B116">
-        <v>207762.762398443</v>
+        <v>1033026.748527677</v>
       </c>
       <c r="C116">
-        <v>33330.1602867257</v>
+        <v>11414.53566914841</v>
       </c>
       <c r="D116">
-        <v>6265.285677374701</v>
+        <v>41147.17758880372</v>
       </c>
       <c r="E116">
-        <v>2323.237845697778</v>
+        <v>300957.425890633</v>
       </c>
       <c r="F116">
-        <v>946.7645701990665</v>
+        <v>1137.320227702822</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>319.9</v>
+        <v>380.8</v>
       </c>
       <c r="B117">
-        <v>217380.4912084305</v>
+        <v>1069280.520801394</v>
       </c>
       <c r="C117">
-        <v>27420.34228650763</v>
+        <v>13227.65933143166</v>
       </c>
       <c r="D117">
-        <v>6589.244431319381</v>
+        <v>42780.6988783519</v>
       </c>
       <c r="E117">
-        <v>2171.334612867413</v>
+        <v>284345.0430617166</v>
       </c>
       <c r="F117">
-        <v>775.4170847028565</v>
+        <v>728.9757751668121</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>322.2</v>
+        <v>383.1</v>
       </c>
       <c r="B118">
-        <v>220038.2200184179</v>
+        <v>1019017.64636028</v>
       </c>
       <c r="C118">
-        <v>23350.52428628956</v>
+        <v>12955.47043290959</v>
       </c>
       <c r="D118">
-        <v>8173.203185264072</v>
+        <v>41338.01659015228</v>
       </c>
       <c r="E118">
-        <v>2399.431380037045</v>
+        <v>254086.6428314858</v>
       </c>
       <c r="F118">
-        <v>874.0695992066459</v>
+        <v>660.2520293337108</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>324.4</v>
+        <v>385.8</v>
       </c>
       <c r="B119">
-        <v>215501.6997497103</v>
+        <v>933738.1850598422</v>
       </c>
       <c r="C119">
-        <v>20458.52445999401</v>
+        <v>14252.03129116631</v>
       </c>
       <c r="D119">
-        <v>7481.337645559001</v>
+        <v>44950.51999096141</v>
       </c>
       <c r="E119">
-        <v>2524.132635590604</v>
+        <v>229684.1729959976</v>
       </c>
       <c r="F119">
-        <v>603.2154826450537</v>
+        <v>610.0111103122446</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>327.1</v>
+        <v>388</v>
       </c>
       <c r="B120">
-        <v>203416.4248744782</v>
+        <v>872671.9573335596</v>
       </c>
       <c r="C120">
-        <v>17197.43376408583</v>
+        <v>14685.15495344955</v>
       </c>
       <c r="D120">
-        <v>7658.593574102753</v>
+        <v>46024.04128050958</v>
       </c>
       <c r="E120">
-        <v>3405.811449224515</v>
+        <v>206711.7901670812</v>
       </c>
       <c r="F120">
-        <v>679.8945214103715</v>
+        <v>491.6666577762348</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>329.3</v>
+        <v>390.3</v>
       </c>
       <c r="B121">
-        <v>214959.9046057706</v>
+        <v>809539.0828924461</v>
       </c>
       <c r="C121">
-        <v>15995.43393779028</v>
+        <v>11732.96605492749</v>
       </c>
       <c r="D121">
-        <v>7766.728034397671</v>
+        <v>43511.35899230994</v>
       </c>
       <c r="E121">
-        <v>3490.512704778078</v>
+        <v>189383.3899368504</v>
       </c>
       <c r="F121">
-        <v>879.0404048487788</v>
+        <v>742.9429119431334</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>331.6</v>
+        <v>392.6</v>
       </c>
       <c r="B122">
-        <v>215477.633415758</v>
+        <v>733296.2084513323</v>
       </c>
       <c r="C122">
-        <v>15165.61593757219</v>
+        <v>12070.77715640542</v>
       </c>
       <c r="D122">
-        <v>7140.686788342358</v>
+        <v>47808.67670411032</v>
       </c>
       <c r="E122">
-        <v>3908.609471947709</v>
+        <v>165454.9897066197</v>
       </c>
       <c r="F122">
-        <v>957.6929193525682</v>
+        <v>384.2191661100328</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>333.9</v>
+        <v>394.8</v>
       </c>
       <c r="B123">
-        <v>212755.3622257455</v>
+        <v>668219.9807250495</v>
       </c>
       <c r="C123">
-        <v>15315.79793735414</v>
+        <v>12033.90081868868</v>
       </c>
       <c r="D123">
-        <v>8404.645542287057</v>
+        <v>51482.19799365849</v>
       </c>
       <c r="E123">
-        <v>5396.706239117342</v>
+        <v>142052.6068777033</v>
       </c>
       <c r="F123">
-        <v>596.3454338563587</v>
+        <v>665.8747135740222</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>336.5</v>
+        <v>397.5</v>
       </c>
       <c r="B124">
-        <v>200955.8382718182</v>
+        <v>604450.5194246117</v>
       </c>
       <c r="C124">
-        <v>15502.52541536848</v>
+        <v>11070.46167694539</v>
       </c>
       <c r="D124">
-        <v>6266.077177181047</v>
+        <v>55714.70139446762</v>
       </c>
       <c r="E124">
-        <v>6284.989541135184</v>
+        <v>121870.137042215</v>
       </c>
       <c r="F124">
-        <v>1063.517841556295</v>
+        <v>485.633794552556</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>338.8</v>
+        <v>399.7</v>
       </c>
       <c r="B125">
-        <v>210953.5670818057</v>
+        <v>549654.2916983289</v>
       </c>
       <c r="C125">
-        <v>15152.70741515039</v>
+        <v>12073.58533922864</v>
       </c>
       <c r="D125">
-        <v>7460.035931125738</v>
+        <v>60698.22268401582</v>
       </c>
       <c r="E125">
-        <v>7483.086308304815</v>
+        <v>109377.7542132986</v>
       </c>
       <c r="F125">
-        <v>562.1703560600841</v>
+        <v>417.2893420165462</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>341.1</v>
+        <v>401.7</v>
       </c>
       <c r="B126">
-        <v>206041.2958917932</v>
+        <v>489701.3574017083</v>
       </c>
       <c r="C126">
-        <v>14222.88941493232</v>
+        <v>10027.33412312251</v>
       </c>
       <c r="D126">
-        <v>5253.994685070415</v>
+        <v>65984.15112905961</v>
       </c>
       <c r="E126">
-        <v>10771.18307547445</v>
+        <v>98087.40618701102</v>
       </c>
       <c r="F126">
-        <v>600.8228705638736</v>
+        <v>389.7034760747198</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>343.4</v>
+        <v>404.2</v>
       </c>
       <c r="B127">
-        <v>197259.0247017806</v>
+        <v>470135.1895309326</v>
       </c>
       <c r="C127">
-        <v>14493.07141471426</v>
+        <v>11184.52010298982</v>
       </c>
       <c r="D127">
-        <v>7087.953439015109</v>
+        <v>73429.06168536434</v>
       </c>
       <c r="E127">
-        <v>13269.27984264408</v>
+        <v>89486.9711541515</v>
       </c>
       <c r="F127">
-        <v>849.4753850676631</v>
+        <v>830.221143647436</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>345.6</v>
+        <v>406.5</v>
       </c>
       <c r="B128">
-        <v>203042.504433073</v>
+        <v>432342.3150898189</v>
       </c>
       <c r="C128">
-        <v>15121.0715884187</v>
+        <v>11272.33120446777</v>
       </c>
       <c r="D128">
-        <v>6006.08789931002</v>
+        <v>86946.37939716474</v>
       </c>
       <c r="E128">
-        <v>16543.98109819763</v>
+        <v>86078.57092392074</v>
       </c>
       <c r="F128">
-        <v>718.6212685060708</v>
+        <v>541.4973978143345</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>348.3</v>
+        <v>408.8</v>
       </c>
       <c r="B129">
-        <v>220797.2295578409</v>
+        <v>425409.4406487051</v>
       </c>
       <c r="C129">
-        <v>14039.98089251052</v>
+        <v>10170.1423059457</v>
       </c>
       <c r="D129">
-        <v>6283.343827853791</v>
+        <v>96053.69710896508</v>
       </c>
       <c r="E129">
-        <v>20975.65991183155</v>
+        <v>85000.17069368999</v>
       </c>
       <c r="F129">
-        <v>425.3003072713891</v>
+        <v>342.7736519812331</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>350.2</v>
+        <v>411.1</v>
       </c>
       <c r="B130">
-        <v>232667.9620530479</v>
+        <v>441366.5662075914</v>
       </c>
       <c r="C130">
-        <v>15841.43558798256</v>
+        <v>10217.95340742364</v>
       </c>
       <c r="D130">
-        <v>6474.005407199405</v>
+        <v>111021.0148207655</v>
       </c>
       <c r="E130">
-        <v>25810.17463253689</v>
+        <v>82231.77046345924</v>
       </c>
       <c r="F130">
-        <v>575.9262975136502</v>
+        <v>294.0499061481325</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>352.8</v>
+        <v>413.6</v>
       </c>
       <c r="B131">
-        <v>243018.4380991207</v>
+        <v>417410.3983368156</v>
       </c>
       <c r="C131">
-        <v>13158.1630659969</v>
+        <v>10785.13938729095</v>
       </c>
       <c r="D131">
-        <v>6375.437042093399</v>
+        <v>125415.9253770702</v>
       </c>
       <c r="E131">
-        <v>32378.45793455474</v>
+        <v>84641.33543059972</v>
       </c>
       <c r="F131">
-        <v>583.0987052135858</v>
+        <v>714.5675737208478</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>355.1</v>
+        <v>415.9</v>
       </c>
       <c r="B132">
-        <v>261406.1669091082</v>
+        <v>425067.523895702</v>
       </c>
       <c r="C132">
-        <v>13558.34506577881</v>
+        <v>10152.95048876891</v>
       </c>
       <c r="D132">
-        <v>6369.39579603809</v>
+        <v>140873.2430888706</v>
       </c>
       <c r="E132">
-        <v>40846.55470172438</v>
+        <v>85082.93520036894</v>
       </c>
       <c r="F132">
-        <v>1011.751219717376</v>
+        <v>635.8438278877474</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>357.4</v>
+        <v>418.2</v>
       </c>
       <c r="B133">
-        <v>287133.8957190957</v>
+        <v>441654.6494545883</v>
       </c>
       <c r="C133">
-        <v>15358.52706556076</v>
+        <v>8040.761590246843</v>
       </c>
       <c r="D133">
-        <v>10273.35454998279</v>
+        <v>156090.5608006709</v>
       </c>
       <c r="E133">
-        <v>51574.65146889402</v>
+        <v>90374.53497013819</v>
       </c>
       <c r="F133">
-        <v>760.4037342211657</v>
+        <v>927.120082054646</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>360</v>
+        <v>420.4</v>
       </c>
       <c r="B134">
-        <v>332504.3717651684</v>
+        <v>466408.4217283057</v>
       </c>
       <c r="C134">
-        <v>16225.2545435751</v>
+        <v>11703.8852525301</v>
       </c>
       <c r="D134">
-        <v>10204.78618487678</v>
+        <v>177554.0820902191</v>
       </c>
       <c r="E134">
-        <v>64952.93477091186</v>
+        <v>110672.1521412218</v>
       </c>
       <c r="F134">
-        <v>837.5761419211018</v>
+        <v>648.7756295186362</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>362.3</v>
+        <v>422.7</v>
       </c>
       <c r="B135">
-        <v>377642.1005751559</v>
+        <v>543185.5472871918</v>
       </c>
       <c r="C135">
-        <v>15685.43654335703</v>
+        <v>13071.69635400804</v>
       </c>
       <c r="D135">
-        <v>11128.74493882147</v>
+        <v>194811.3998020195</v>
       </c>
       <c r="E135">
-        <v>82611.03153808147</v>
+        <v>123173.751910991</v>
       </c>
       <c r="F135">
-        <v>986.2286564248913</v>
+        <v>890.0518836855357</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>364.2</v>
+        <v>425.3</v>
       </c>
       <c r="B136">
-        <v>426432.8330703629</v>
+        <v>573582.7327015852</v>
       </c>
       <c r="C136">
-        <v>13146.89123882905</v>
+        <v>12003.56977307004</v>
       </c>
       <c r="D136">
-        <v>12609.40651816708</v>
+        <v>207410.1067805765</v>
       </c>
       <c r="E136">
-        <v>104855.5462587868</v>
+        <v>95367.29947681716</v>
       </c>
       <c r="F136">
-        <v>1056.854646667152</v>
+        <v>280.1902579611602</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>366.8</v>
+        <v>427.5</v>
       </c>
       <c r="B137">
-        <v>500593.3091164358</v>
+        <v>480306.5049753024</v>
       </c>
       <c r="C137">
-        <v>14493.61871684339</v>
+        <v>12346.69343535329</v>
       </c>
       <c r="D137">
-        <v>14810.83815306107</v>
+        <v>219403.6280701246</v>
       </c>
       <c r="E137">
-        <v>133713.8295608047</v>
+        <v>39724.91664790079</v>
       </c>
       <c r="F137">
-        <v>854.0270543670885</v>
+        <v>481.8458054251504</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>369.1</v>
+        <v>429.8</v>
       </c>
       <c r="B138">
-        <v>601311.0379264232</v>
+        <v>343093.6305341887</v>
       </c>
       <c r="C138">
-        <v>15583.80071662532</v>
+        <v>10684.50453683122</v>
       </c>
       <c r="D138">
-        <v>17714.79690700576</v>
+        <v>229630.945781925</v>
       </c>
       <c r="E138">
-        <v>170961.9263279743</v>
+        <v>31816.51641767002</v>
       </c>
       <c r="F138">
-        <v>1012.679568870878</v>
+        <v>653.122059592049</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>371.4</v>
+        <v>432.1</v>
       </c>
       <c r="B139">
-        <v>710868.7667364107</v>
+        <v>281310.7560930749</v>
       </c>
       <c r="C139">
-        <v>16443.98271640725</v>
+        <v>8392.315638309155</v>
       </c>
       <c r="D139">
-        <v>22398.75566095046</v>
+        <v>235568.2634937254</v>
       </c>
       <c r="E139">
-        <v>211880.023095144</v>
+        <v>27188.11618743927</v>
       </c>
       <c r="F139">
-        <v>761.3320833746674</v>
+        <v>344.3983137589485</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>373.7</v>
+        <v>434.3</v>
       </c>
       <c r="B140">
-        <v>832866.495546398</v>
+        <v>250504.5283667923</v>
       </c>
       <c r="C140">
-        <v>16544.16471618917</v>
+        <v>9215.439300592414</v>
       </c>
       <c r="D140">
-        <v>26242.71441489515</v>
+        <v>236331.7847832735</v>
       </c>
       <c r="E140">
-        <v>258208.1198623136</v>
+        <v>26185.73335852289</v>
       </c>
       <c r="F140">
-        <v>839.9845978784568</v>
+        <v>506.0538612229387</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>375.9</v>
+        <v>436.6</v>
       </c>
       <c r="B141">
-        <v>954069.9752776906</v>
+        <v>242921.6539256785</v>
       </c>
       <c r="C141">
-        <v>18652.16488989363</v>
+        <v>9483.250402070349</v>
       </c>
       <c r="D141">
-        <v>28740.84887519007</v>
+        <v>233349.1024950739</v>
       </c>
       <c r="E141">
-        <v>288162.8211178671</v>
+        <v>23147.33312829213</v>
       </c>
       <c r="F141">
-        <v>1029.130481316864</v>
+        <v>177.3301153898373</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>378.6</v>
+        <v>439.2</v>
       </c>
       <c r="B142">
-        <v>1022154.700402458</v>
+        <v>221038.8393400718</v>
       </c>
       <c r="C142">
-        <v>16351.07419398545</v>
+        <v>7525.123821132377</v>
       </c>
       <c r="D142">
-        <v>30828.10480373383</v>
+        <v>222367.8094736309</v>
       </c>
       <c r="E142">
-        <v>301594.4999315011</v>
+        <v>21320.88069411823</v>
       </c>
       <c r="F142">
-        <v>1375.809520082182</v>
+        <v>567.4684896654619</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>380.8</v>
+        <v>441.5</v>
       </c>
       <c r="B143">
-        <v>1058208.18013375</v>
+        <v>209145.9648989581</v>
       </c>
       <c r="C143">
-        <v>18109.0743676899</v>
+        <v>9792.934922610311</v>
       </c>
       <c r="D143">
-        <v>32066.23926402875</v>
+        <v>210615.1271854312</v>
       </c>
       <c r="E143">
-        <v>284969.2011870546</v>
+        <v>19162.48046388748</v>
       </c>
       <c r="F143">
-        <v>964.9554035205902</v>
+        <v>228.7447438323614</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>383.1</v>
+        <v>443.7</v>
       </c>
       <c r="B144">
-        <v>1007735.908943738</v>
+        <v>198239.7371726754</v>
       </c>
       <c r="C144">
-        <v>17779.25636747181</v>
+        <v>7536.058584893567</v>
       </c>
       <c r="D144">
-        <v>30210.19801797344</v>
+        <v>188148.6484749794</v>
       </c>
       <c r="E144">
-        <v>254697.2979542242</v>
+        <v>17570.0976349711</v>
       </c>
       <c r="F144">
-        <v>893.6079180243796</v>
+        <v>490.4002912963516</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>385.8</v>
+        <v>446</v>
       </c>
       <c r="B145">
-        <v>922210.6340685061</v>
+        <v>182426.8627315617</v>
       </c>
       <c r="C145">
-        <v>19008.16567156365</v>
+        <v>9303.869686371501</v>
       </c>
       <c r="D145">
-        <v>33337.45394651718</v>
+        <v>166985.9661867798</v>
       </c>
       <c r="E145">
-        <v>230278.9767678582</v>
+        <v>16561.69740474034</v>
       </c>
       <c r="F145">
-        <v>840.2869567896983</v>
+        <v>531.6765454632501</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>388</v>
+        <v>448.6</v>
       </c>
       <c r="B146">
-        <v>860944.1137997984</v>
+        <v>170344.0481459549</v>
       </c>
       <c r="C146">
-        <v>19386.1658452681</v>
+        <v>10465.74310543351</v>
       </c>
       <c r="D146">
-        <v>34015.58840681212</v>
+        <v>141224.6731653367</v>
       </c>
       <c r="E146">
-        <v>207293.6780234117</v>
+        <v>14235.24497056644</v>
       </c>
       <c r="F146">
-        <v>719.4328402281056</v>
+        <v>371.8149197388747</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>390.3</v>
+        <v>450.8</v>
       </c>
       <c r="B147">
-        <v>797601.8426097858</v>
+        <v>167897.8204196722</v>
       </c>
       <c r="C147">
-        <v>16376.34784505001</v>
+        <v>10148.86676771675</v>
       </c>
       <c r="D147">
-        <v>31089.54716075682</v>
+        <v>117978.1944548849</v>
       </c>
       <c r="E147">
-        <v>189951.7747905814</v>
+        <v>12892.86214165007</v>
       </c>
       <c r="F147">
-        <v>968.0853547318956</v>
+        <v>233.470467202865</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>392.6</v>
+        <v>453.1</v>
       </c>
       <c r="B148">
-        <v>721149.5714197733</v>
+        <v>150294.9459785585</v>
       </c>
       <c r="C148">
-        <v>16656.52984483194</v>
+        <v>7946.677869194687</v>
       </c>
       <c r="D148">
-        <v>34973.50591470148</v>
+        <v>99035.51216668528</v>
       </c>
       <c r="E148">
-        <v>166009.871557751</v>
+        <v>11334.46191141931</v>
       </c>
       <c r="F148">
-        <v>606.7378692356849</v>
+        <v>454.7467213697644</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>394.8</v>
+        <v>455.4</v>
       </c>
       <c r="B149">
-        <v>655873.0511510656</v>
+        <v>136112.0715374447</v>
       </c>
       <c r="C149">
-        <v>16564.53001853639</v>
+        <v>5424.488970672644</v>
       </c>
       <c r="D149">
-        <v>38251.64037499639</v>
+        <v>86232.82987848565</v>
       </c>
       <c r="E149">
-        <v>142594.5728133046</v>
+        <v>10676.06168118855</v>
       </c>
       <c r="F149">
-        <v>885.8837526740928</v>
+        <v>716.022975536663</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>397.5</v>
+        <v>457.7</v>
       </c>
       <c r="B150">
-        <v>591857.7762758336</v>
+        <v>138379.197096331</v>
       </c>
       <c r="C150">
-        <v>15533.43932262823</v>
+        <v>8172.300072150579</v>
       </c>
       <c r="D150">
-        <v>41998.89630354016</v>
+        <v>78070.14759028601</v>
       </c>
       <c r="E150">
-        <v>122396.2516269385</v>
+        <v>9277.661450957794</v>
       </c>
       <c r="F150">
-        <v>702.5627914394106</v>
+        <v>337.2992297035615</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>399.7</v>
+        <v>460.3</v>
       </c>
       <c r="B151">
-        <v>536861.256007126</v>
+        <v>127776.3825107243</v>
       </c>
       <c r="C151">
-        <v>16481.43949633267</v>
+        <v>10964.17349121259</v>
       </c>
       <c r="D151">
-        <v>46587.03076383508</v>
+        <v>69598.85456884297</v>
       </c>
       <c r="E151">
-        <v>109890.952882492</v>
+        <v>7451.209016783887</v>
       </c>
       <c r="F151">
-        <v>631.7086748778183</v>
+        <v>527.437603979187</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>401.7</v>
+        <v>462.2</v>
       </c>
       <c r="B152">
-        <v>476726.2375810281</v>
+        <v>119160.0949289346</v>
       </c>
       <c r="C152">
-        <v>14385.07601788217</v>
+        <v>9633.234835911768</v>
       </c>
       <c r="D152">
-        <v>51513.51663683047</v>
+        <v>66700.98659163457</v>
       </c>
       <c r="E152">
-        <v>98588.86311481342</v>
+        <v>7916.878391810662</v>
       </c>
       <c r="F152">
-        <v>601.841296185461</v>
+        <v>180.2310313344513</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>404.2</v>
+        <v>464.9</v>
       </c>
       <c r="B153">
-        <v>456932.4645484058</v>
+        <v>111210.6336284968</v>
       </c>
       <c r="C153">
-        <v>15479.62166981905</v>
+        <v>12159.79569416848</v>
       </c>
       <c r="D153">
-        <v>58509.12397807471</v>
+        <v>63233.48999244371</v>
       </c>
       <c r="E153">
-        <v>89973.75090521519</v>
+        <v>6634.408556322376</v>
       </c>
       <c r="F153">
-        <v>1039.507072820016</v>
+        <v>259.9901123129852</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>406.5</v>
+        <v>467.1</v>
       </c>
       <c r="B154">
-        <v>418930.1933583933</v>
+        <v>111454.4059022141</v>
       </c>
       <c r="C154">
-        <v>15509.80366960097</v>
+        <v>8152.919356451713</v>
       </c>
       <c r="D154">
-        <v>71613.08273201938</v>
+        <v>60127.01128199188</v>
       </c>
       <c r="E154">
-        <v>86551.84767238483</v>
+        <v>5822.025727405999</v>
       </c>
       <c r="F154">
-        <v>748.159587323805</v>
+        <v>331.6456597769744</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>408.8</v>
+        <v>469.4</v>
       </c>
       <c r="B155">
-        <v>411787.9221683806</v>
+        <v>102901.5314611004</v>
       </c>
       <c r="C155">
-        <v>14349.98566938288</v>
+        <v>8810.730457929665</v>
       </c>
       <c r="D155">
-        <v>80307.04148596406</v>
+        <v>58164.32899379226</v>
       </c>
       <c r="E155">
-        <v>85459.94443955446</v>
+        <v>6253.625497175242</v>
       </c>
       <c r="F155">
-        <v>546.8121018275945</v>
+        <v>332.921913943874</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>411.1</v>
+        <v>472</v>
       </c>
       <c r="B156">
-        <v>427535.6509783681</v>
+        <v>94268.71687549361</v>
       </c>
       <c r="C156">
-        <v>14340.16766916481</v>
+        <v>9882.603876991674</v>
       </c>
       <c r="D156">
-        <v>94861.00023990875</v>
+        <v>58283.03597234918</v>
       </c>
       <c r="E156">
-        <v>82678.04120672408</v>
+        <v>5297.173063001343</v>
       </c>
       <c r="F156">
-        <v>495.4646163313838</v>
+        <v>123.0602882194985</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>413.6</v>
+        <v>474.2</v>
       </c>
       <c r="B157">
-        <v>403351.8779457458</v>
+        <v>98012.48914921089</v>
       </c>
       <c r="C157">
-        <v>14844.71332110168</v>
+        <v>8065.72753927493</v>
       </c>
       <c r="D157">
-        <v>108806.607581153</v>
+        <v>57886.55726189737</v>
       </c>
       <c r="E157">
-        <v>85072.92899712585</v>
+        <v>4824.790234084965</v>
       </c>
       <c r="F157">
-        <v>913.1303929659383</v>
+        <v>224.7158356834887</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>415.9</v>
+        <v>476.5</v>
       </c>
       <c r="B158">
-        <v>410799.6067557333</v>
+        <v>84369.61470809722</v>
       </c>
       <c r="C158">
-        <v>14154.89532088362</v>
+        <v>6823.538640752869</v>
       </c>
       <c r="D158">
-        <v>123850.5663350977</v>
+        <v>55753.87497369774</v>
       </c>
       <c r="E158">
-        <v>85501.02576429548</v>
+        <v>3776.390003854207</v>
       </c>
       <c r="F158">
-        <v>831.7829074697279</v>
+        <v>435.9920898503873</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>418.2</v>
+        <v>478.8</v>
       </c>
       <c r="B159">
-        <v>427177.3355657207</v>
+        <v>76026.74026698354</v>
       </c>
       <c r="C159">
-        <v>11985.07732066554</v>
+        <v>8581.349742230803</v>
       </c>
       <c r="D159">
-        <v>138654.5250890424</v>
+        <v>56571.19268549812</v>
       </c>
       <c r="E159">
-        <v>90779.12253146512</v>
+        <v>4827.989773623447</v>
       </c>
       <c r="F159">
-        <v>1120.435421973517</v>
+        <v>607.2683440172867</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>420.4</v>
+        <v>481.1</v>
       </c>
       <c r="B160">
-        <v>451730.8152970132</v>
+        <v>81403.86582586975</v>
       </c>
       <c r="C160">
-        <v>15593.07749436999</v>
+        <v>6999.160843708739</v>
       </c>
       <c r="D160">
-        <v>159722.6595493373</v>
+        <v>53378.51039729847</v>
       </c>
       <c r="E160">
-        <v>111063.8237870187</v>
+        <v>3919.58954339269</v>
       </c>
       <c r="F160">
-        <v>839.5813054119251</v>
+        <v>228.5445981841853</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>422.7</v>
+        <v>483.3</v>
       </c>
       <c r="B161">
-        <v>528298.5441070007</v>
+        <v>72727.63809958714</v>
       </c>
       <c r="C161">
-        <v>16903.25949415192</v>
+        <v>7502.284505991979</v>
       </c>
       <c r="D161">
-        <v>176566.618303282</v>
+        <v>54902.03168684667</v>
       </c>
       <c r="E161">
-        <v>123551.9205541883</v>
+        <v>4837.206714476311</v>
       </c>
       <c r="F161">
-        <v>1078.233819915715</v>
+        <v>100.2001456481755</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>425.3</v>
+        <v>485.6</v>
       </c>
       <c r="B162">
-        <v>558459.0201530732</v>
+        <v>79134.76365847336</v>
       </c>
       <c r="C162">
-        <v>15769.98697216626</v>
+        <v>9140.095607469913</v>
       </c>
       <c r="D162">
-        <v>188698.049938176</v>
+        <v>58109.34939864703</v>
       </c>
       <c r="E162">
-        <v>95730.20385620615</v>
+        <v>4388.806484245555</v>
       </c>
       <c r="F162">
-        <v>465.4062276156507</v>
+        <v>361.476399815074</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>427.5</v>
+        <v>488.2</v>
       </c>
       <c r="B163">
-        <v>464982.4998843656</v>
+        <v>78191.94907286658</v>
       </c>
       <c r="C163">
-        <v>16057.98714587072</v>
+        <v>9871.96902653194</v>
       </c>
       <c r="D163">
-        <v>200296.1843984709</v>
+        <v>54148.05637720397</v>
       </c>
       <c r="E163">
-        <v>40074.90511175973</v>
+        <v>4482.354050071655</v>
       </c>
       <c r="F163">
-        <v>664.5521110540581</v>
+        <v>381.6147740906996</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>429.8</v>
+        <v>490.5</v>
       </c>
       <c r="B164">
-        <v>327560.2286943532</v>
+        <v>70619.07463175291</v>
       </c>
       <c r="C164">
-        <v>14338.16914565264</v>
+        <v>9189.780128009876</v>
       </c>
       <c r="D164">
-        <v>210110.1431524156</v>
+        <v>53505.37408900433</v>
       </c>
       <c r="E164">
-        <v>32153.00187892935</v>
+        <v>4623.953819840899</v>
       </c>
       <c r="F164">
-        <v>833.204625557847</v>
+        <v>232.8910282575982</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>432.1</v>
+        <v>492.7</v>
       </c>
       <c r="B165">
-        <v>265567.9575043407</v>
+        <v>62992.84690547018</v>
       </c>
       <c r="C165">
-        <v>11988.35114543455</v>
+        <v>6082.903790293135</v>
       </c>
       <c r="D165">
-        <v>215634.1019063603</v>
+        <v>54018.89537855253</v>
       </c>
       <c r="E165">
-        <v>27511.09864609898</v>
+        <v>3871.570990924521</v>
       </c>
       <c r="F165">
-        <v>521.8571400616373</v>
+        <v>454.5465757215884</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>434.3</v>
+        <v>495</v>
       </c>
       <c r="B166">
-        <v>234561.437235633</v>
+        <v>60829.97246435651</v>
       </c>
       <c r="C166">
-        <v>12756.35131913901</v>
+        <v>4640.71489177107</v>
       </c>
       <c r="D166">
-        <v>216002.2363666552</v>
+        <v>55476.2130903529</v>
       </c>
       <c r="E166">
-        <v>26495.79990165255</v>
+        <v>3593.170760693765</v>
       </c>
       <c r="F166">
-        <v>681.0030235000442</v>
+        <v>305.8228298884869</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>436.6</v>
+        <v>497.3</v>
       </c>
       <c r="B167">
-        <v>226769.1660456205</v>
+        <v>61867.09802324272</v>
       </c>
       <c r="C167">
-        <v>12966.53331892093</v>
+        <v>7118.525993249005</v>
       </c>
       <c r="D167">
-        <v>212606.1951205999</v>
+        <v>55563.53080215328</v>
       </c>
       <c r="E167">
-        <v>23443.89666882218</v>
+        <v>3444.770530463004</v>
       </c>
       <c r="F167">
-        <v>349.6555380038341</v>
+        <v>417.0990840553865</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>439.2</v>
+        <v>499.9</v>
       </c>
       <c r="B168">
-        <v>204649.6420916932</v>
+        <v>58134.28343763593</v>
       </c>
       <c r="C168">
-        <v>10943.2607969353</v>
+        <v>5670.399412311032</v>
       </c>
       <c r="D168">
-        <v>201157.6267554939</v>
+        <v>55332.23778071022</v>
       </c>
       <c r="E168">
-        <v>21602.17997084002</v>
+        <v>3818.318096289109</v>
       </c>
       <c r="F168">
-        <v>736.8279457037708</v>
+        <v>257.237458331011</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>441.5</v>
+        <v>501.8</v>
       </c>
       <c r="B169">
-        <v>192547.3709016806</v>
+        <v>60637.99585584632</v>
       </c>
       <c r="C169">
-        <v>13153.44279671721</v>
+        <v>6089.460757010181</v>
       </c>
       <c r="D169">
-        <v>188991.5855094386</v>
+        <v>55184.3698035018</v>
       </c>
       <c r="E169">
-        <v>19430.27673800965</v>
+        <v>3583.987471315869</v>
       </c>
       <c r="F169">
-        <v>395.4804602075601</v>
+        <v>450.0308856862753</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>443.7</v>
+        <v>504.4</v>
       </c>
       <c r="B170">
-        <v>181440.850632973</v>
+        <v>56385.18127023953</v>
       </c>
       <c r="C170">
-        <v>10841.44297042166</v>
+        <v>7911.334176072208</v>
       </c>
       <c r="D170">
-        <v>166129.7199697335</v>
+        <v>55153.07678205874</v>
       </c>
       <c r="E170">
-        <v>17824.97799356321</v>
+        <v>2837.535037141974</v>
       </c>
       <c r="F170">
-        <v>654.626343645967</v>
+        <v>150.1692599618998</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>446</v>
+        <v>506.7</v>
       </c>
       <c r="B171">
-        <v>165418.5794429605</v>
+        <v>46502.30682912586</v>
       </c>
       <c r="C171">
-        <v>12551.62497020359</v>
+        <v>7669.145277550143</v>
       </c>
       <c r="D171">
-        <v>144553.6787236782</v>
+        <v>53190.39449385912</v>
       </c>
       <c r="E171">
-        <v>16803.07476073284</v>
+        <v>3219.134806911213</v>
       </c>
       <c r="F171">
-        <v>693.2788581497574</v>
+        <v>471.4455141287993</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>448.6</v>
+        <v>509</v>
       </c>
       <c r="B172">
-        <v>153099.0554890333</v>
+        <v>52869.43238801219</v>
       </c>
       <c r="C172">
-        <v>13648.35244821793</v>
+        <v>4336.956379028078</v>
       </c>
       <c r="D172">
-        <v>118325.1103585722</v>
+        <v>55927.71220565949</v>
       </c>
       <c r="E172">
-        <v>14461.35806275068</v>
+        <v>3420.734576680457</v>
       </c>
       <c r="F172">
-        <v>530.4512658496931</v>
+        <v>342.7217682956979</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>450.8</v>
+        <v>511.3</v>
       </c>
       <c r="B173">
-        <v>150452.5352203256</v>
+        <v>45846.5579468984</v>
       </c>
       <c r="C173">
-        <v>13276.35262192239</v>
+        <v>6014.767480506017</v>
       </c>
       <c r="D173">
-        <v>94683.2448188671</v>
+        <v>53645.02991745987</v>
       </c>
       <c r="E173">
-        <v>13106.05931830425</v>
+        <v>2632.334346449696</v>
       </c>
       <c r="F173">
-        <v>389.5971492881004</v>
+        <v>373.9980224625973</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>453.1</v>
+        <v>513.5</v>
       </c>
       <c r="B174">
-        <v>132640.2640303131</v>
+        <v>45410.33022061579</v>
       </c>
       <c r="C174">
-        <v>11016.5346217043</v>
+        <v>6747.891142789272</v>
       </c>
       <c r="D174">
-        <v>75327.20357281175</v>
+        <v>55098.55120700805</v>
       </c>
       <c r="E174">
-        <v>11534.15608547388</v>
+        <v>3419.951517533322</v>
       </c>
       <c r="F174">
-        <v>608.2496637918898</v>
+        <v>555.6535699265867</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>455.4</v>
+        <v>516.1</v>
       </c>
       <c r="B175">
-        <v>118247.9928403006</v>
+        <v>48447.51563500889</v>
       </c>
       <c r="C175">
-        <v>8436.716621486245</v>
+        <v>5259.764561851281</v>
       </c>
       <c r="D175">
-        <v>62111.16232675648</v>
+        <v>55457.25818556498</v>
       </c>
       <c r="E175">
-        <v>10862.25285264351</v>
+        <v>3413.499083359419</v>
       </c>
       <c r="F175">
-        <v>866.9021782956803</v>
+        <v>195.7919442022121</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>457.7</v>
+        <v>518.4</v>
       </c>
       <c r="B176">
-        <v>120305.721650288</v>
+        <v>47474.64119389522</v>
       </c>
       <c r="C176">
-        <v>11126.89862126817</v>
+        <v>6307.575663329234</v>
       </c>
       <c r="D176">
-        <v>53535.12108070114</v>
+        <v>54154.57589736535</v>
       </c>
       <c r="E176">
-        <v>9450.349619813147</v>
+        <v>1845.098853128663</v>
       </c>
       <c r="F176">
-        <v>485.5546927994696</v>
+        <v>267.0681983691107</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>460.3</v>
+        <v>520.6</v>
       </c>
       <c r="B177">
-        <v>109466.1976963608</v>
+        <v>44678.4134676125</v>
       </c>
       <c r="C177">
-        <v>13853.62609928252</v>
+        <v>3810.699325612471</v>
       </c>
       <c r="D177">
-        <v>44596.55271559513</v>
+        <v>49948.09718691355</v>
       </c>
       <c r="E177">
-        <v>7608.632921830988</v>
+        <v>2972.716024212284</v>
       </c>
       <c r="F177">
-        <v>672.7271004994058</v>
+        <v>398.7237458331009</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>462.2</v>
+        <v>522.9</v>
       </c>
       <c r="B178">
-        <v>100676.9301915679</v>
+        <v>47535.53902649882</v>
       </c>
       <c r="C178">
-        <v>12475.08079475454</v>
+        <v>4578.510427090409</v>
       </c>
       <c r="D178">
-        <v>41357.21429494075</v>
+        <v>53225.4148987139</v>
       </c>
       <c r="E178">
-        <v>8063.147642536337</v>
+        <v>2134.315793981531</v>
       </c>
       <c r="F178">
-        <v>323.3530907416668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>464.9</v>
+        <v>525.5</v>
       </c>
       <c r="B179">
-        <v>92481.6553163357</v>
+        <v>52702.72444089205</v>
       </c>
       <c r="C179">
-        <v>14933.99009884637</v>
+        <v>4330.383846152433</v>
       </c>
       <c r="D179">
-        <v>37404.47022348452</v>
+        <v>54534.12187727085</v>
       </c>
       <c r="E179">
-        <v>6764.826456170252</v>
+        <v>2467.863359807628</v>
       </c>
       <c r="F179">
-        <v>400.0321295069847</v>
+        <v>70.13837427562498</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>467.1</v>
+        <v>527.7</v>
       </c>
       <c r="B180">
-        <v>92525.13504762805</v>
+        <v>50856.49671460933</v>
       </c>
       <c r="C180">
-        <v>10871.99027255081</v>
+        <v>5713.507508435655</v>
       </c>
       <c r="D180">
-        <v>33902.60468377943</v>
+        <v>51827.64316681901</v>
       </c>
       <c r="E180">
-        <v>5939.52771172381</v>
+        <v>2055.480530891249</v>
       </c>
       <c r="F180">
-        <v>469.1780129453924</v>
+        <v>151.7939217396152</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>469.4</v>
+        <v>530</v>
       </c>
       <c r="B181">
-        <v>83762.86385761552</v>
+        <v>54843.62227349565</v>
       </c>
       <c r="C181">
-        <v>11472.17227233274</v>
+        <v>3241.318609913612</v>
       </c>
       <c r="D181">
-        <v>31526.56343772412</v>
+        <v>52184.96087861941</v>
       </c>
       <c r="E181">
-        <v>6357.624478893443</v>
+        <v>2027.080300660493</v>
       </c>
       <c r="F181">
-        <v>467.8305274491819</v>
+        <v>273.0701759065138</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>472</v>
+        <v>532.3</v>
       </c>
       <c r="B182">
-        <v>74893.33990368833</v>
+        <v>51080.74783238197</v>
       </c>
       <c r="C182">
-        <v>12478.89975034708</v>
+        <v>3229.129711391565</v>
       </c>
       <c r="D182">
-        <v>31177.99507261812</v>
+        <v>55092.27859041974</v>
       </c>
       <c r="E182">
-        <v>5385.907780911285</v>
+        <v>3148.680070429737</v>
       </c>
       <c r="F182">
-        <v>255.002935149118</v>
+        <v>334.3464300734133</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>474.2</v>
+        <v>534.5</v>
       </c>
       <c r="B183">
-        <v>78436.8196349807</v>
+        <v>47044.52010609925</v>
       </c>
       <c r="C183">
-        <v>10606.89992405153</v>
+        <v>4472.253373674802</v>
       </c>
       <c r="D183">
-        <v>30386.12953291306</v>
+        <v>53025.79987996796</v>
       </c>
       <c r="E183">
-        <v>4900.609036464847</v>
+        <v>2276.297241513358</v>
       </c>
       <c r="F183">
-        <v>354.1488185875259</v>
+        <v>276.0019775374035</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>476.5</v>
+        <v>537.1</v>
       </c>
       <c r="B184">
-        <v>64584.54844496817</v>
+        <v>58351.70552049247</v>
       </c>
       <c r="C184">
-        <v>9307.081923833459</v>
+        <v>4594.126792736811</v>
       </c>
       <c r="D184">
-        <v>27840.08828685772</v>
+        <v>52674.5068585249</v>
       </c>
       <c r="E184">
-        <v>3838.705803634479</v>
+        <v>2689.844807339459</v>
       </c>
       <c r="F184">
-        <v>562.8013330913153</v>
+        <v>426.140351813028</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>478.8</v>
+        <v>539</v>
       </c>
       <c r="B185">
-        <v>56032.27725495562</v>
+        <v>43585.41793870286</v>
       </c>
       <c r="C185">
-        <v>11007.26392361538</v>
+        <v>4353.188137435977</v>
       </c>
       <c r="D185">
-        <v>28244.04704080241</v>
+        <v>50956.6388813165</v>
       </c>
       <c r="E185">
-        <v>4876.802570804107</v>
+        <v>2435.514182366223</v>
       </c>
       <c r="F185">
-        <v>731.4538475951047</v>
+        <v>448.9337791682923</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>481.1</v>
+        <v>541.6</v>
       </c>
       <c r="B186">
-        <v>61200.0060649431</v>
+        <v>47532.60335309608</v>
       </c>
       <c r="C186">
-        <v>9367.445923397299</v>
+        <v>4845.061556498001</v>
       </c>
       <c r="D186">
-        <v>24638.00579474711</v>
+        <v>51555.34585987344</v>
       </c>
       <c r="E186">
-        <v>3954.899337973739</v>
+        <v>1919.061748192323</v>
       </c>
       <c r="F186">
-        <v>350.1063620988941</v>
+        <v>439.0721534439168</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>483.3</v>
+        <v>543.9</v>
       </c>
       <c r="B187">
-        <v>52323.48579623546</v>
+        <v>54299.72891198228</v>
       </c>
       <c r="C187">
-        <v>9815.446097101751</v>
+        <v>3652.87265797594</v>
       </c>
       <c r="D187">
-        <v>25766.14025504202</v>
+        <v>51222.6635716738</v>
       </c>
       <c r="E187">
-        <v>4859.600593527301</v>
+        <v>1060.661517961568</v>
       </c>
       <c r="F187">
-        <v>219.252245537302</v>
+        <v>330.3484076108164</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>485.6</v>
+        <v>546.1</v>
       </c>
       <c r="B188">
-        <v>58521.21460622293</v>
+        <v>37033.50118569968</v>
       </c>
       <c r="C188">
-        <v>11395.62809688368</v>
+        <v>1655.99632025918</v>
       </c>
       <c r="D188">
-        <v>28560.09900898671</v>
+        <v>48576.18486122198</v>
       </c>
       <c r="E188">
-        <v>4397.69736069693</v>
+        <v>1738.278689045188</v>
       </c>
       <c r="F188">
-        <v>477.9047600410913</v>
+        <v>212.0039550748056</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>488.2</v>
+        <v>548.4</v>
       </c>
       <c r="B189">
-        <v>57341.69065229563</v>
+        <v>42650.62674458589</v>
       </c>
       <c r="C189">
-        <v>12062.35557489804</v>
+        <v>2443.807421737133</v>
       </c>
       <c r="D189">
-        <v>24131.53064388071</v>
+        <v>48923.50257302236</v>
       </c>
       <c r="E189">
-        <v>4475.980662714775</v>
+        <v>1829.878458814432</v>
       </c>
       <c r="F189">
-        <v>495.0771677410276</v>
+        <v>473.2802092417052</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>490.5</v>
+        <v>550.6</v>
       </c>
       <c r="B190">
-        <v>49559.4194622831</v>
+        <v>45774.39901830329</v>
       </c>
       <c r="C190">
-        <v>11322.53757467995</v>
+        <v>1766.93108402037</v>
       </c>
       <c r="D190">
-        <v>23075.4893978254</v>
+        <v>50467.02386257053</v>
       </c>
       <c r="E190">
-        <v>4604.077429884407</v>
+        <v>1357.495629898054</v>
       </c>
       <c r="F190">
-        <v>343.729682244817</v>
+        <v>324.9357567056953</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>492.7</v>
+        <v>553.2</v>
       </c>
       <c r="B191">
-        <v>41732.89919357545</v>
+        <v>42791.58443269639</v>
       </c>
       <c r="C191">
-        <v>8160.537748384406</v>
+        <v>3348.804503082379</v>
       </c>
       <c r="D191">
-        <v>23193.62385812031</v>
+        <v>50395.73084112749</v>
       </c>
       <c r="E191">
-        <v>3838.778685437966</v>
+        <v>1141.04319572415</v>
       </c>
       <c r="F191">
-        <v>562.8755656832247</v>
+        <v>465.0741309813199</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>495</v>
+        <v>555.5</v>
       </c>
       <c r="B192">
-        <v>39360.62800356292</v>
+        <v>38528.70999158271</v>
       </c>
       <c r="C192">
-        <v>6660.719748166332</v>
+        <v>2856.615604560332</v>
       </c>
       <c r="D192">
-        <v>24237.582612065</v>
+        <v>47943.04855292783</v>
       </c>
       <c r="E192">
-        <v>3546.875452607598</v>
+        <v>1032.642965493394</v>
       </c>
       <c r="F192">
-        <v>411.5280801870142</v>
+        <v>326.3503851482194</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>497.3</v>
+        <v>557.8</v>
       </c>
       <c r="B193">
-        <v>40188.35681355039</v>
+        <v>37765.83555046903</v>
       </c>
       <c r="C193">
-        <v>9080.901747948257</v>
+        <v>3124.426706038271</v>
       </c>
       <c r="D193">
-        <v>23911.5413660097</v>
+        <v>50670.36626472823</v>
       </c>
       <c r="E193">
-        <v>3384.972219777229</v>
+        <v>2164.242735262641</v>
       </c>
       <c r="F193">
-        <v>520.1805946908036</v>
+        <v>237.6266393151181</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>499.9</v>
+        <v>560</v>
       </c>
       <c r="B194">
-        <v>36218.83285962322</v>
+        <v>39359.60782418632</v>
       </c>
       <c r="C194">
-        <v>7567.629225962606</v>
+        <v>4127.550368321507</v>
       </c>
       <c r="D194">
-        <v>23212.97300090369</v>
+        <v>49503.88755427639</v>
       </c>
       <c r="E194">
-        <v>3743.255521795076</v>
+        <v>1821.859906346259</v>
       </c>
       <c r="F194">
-        <v>357.3530023907398</v>
+        <v>429.2821867791082</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>501.8</v>
+        <v>562.6</v>
       </c>
       <c r="B195">
-        <v>38549.56535483021</v>
+        <v>35916.79323857954</v>
       </c>
       <c r="C195">
-        <v>7939.083921434623</v>
+        <v>4029.423787383516</v>
       </c>
       <c r="D195">
-        <v>22723.6345802493</v>
+        <v>49422.59453283334</v>
       </c>
       <c r="E195">
-        <v>3497.77024250042</v>
+        <v>1985.40747217236</v>
       </c>
       <c r="F195">
-        <v>547.9789926330009</v>
+        <v>209.4205610547328</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>504.4</v>
+        <v>564.9</v>
       </c>
       <c r="B196">
-        <v>34060.04140090304</v>
+        <v>40553.91879746586</v>
       </c>
       <c r="C196">
-        <v>9695.811399448987</v>
+        <v>4377.23488886147</v>
       </c>
       <c r="D196">
-        <v>22225.0662151433</v>
+        <v>49039.91224463372</v>
       </c>
       <c r="E196">
-        <v>2736.053544518267</v>
+        <v>1657.007241941603</v>
       </c>
       <c r="F196">
-        <v>245.1514003329371</v>
+        <v>390.6968152216323</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>506.7</v>
+        <v>567.1</v>
       </c>
       <c r="B197">
-        <v>23967.7702108905</v>
+        <v>39517.69107118314</v>
       </c>
       <c r="C197">
-        <v>9395.993399230912</v>
+        <v>3590.35855114471</v>
       </c>
       <c r="D197">
-        <v>19849.02496908799</v>
+        <v>50373.4335341819</v>
       </c>
       <c r="E197">
-        <v>3104.150311687898</v>
+        <v>1554.624413025225</v>
       </c>
       <c r="F197">
-        <v>563.8039148367264</v>
+        <v>382.3523626856224</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>509</v>
+        <v>569.4</v>
       </c>
       <c r="B198">
-        <v>30125.49902087797</v>
+        <v>43744.81663006946</v>
       </c>
       <c r="C198">
-        <v>6006.175399012824</v>
+        <v>5138.169652622663</v>
       </c>
       <c r="D198">
-        <v>22172.98372303268</v>
+        <v>49570.75124598225</v>
       </c>
       <c r="E198">
-        <v>3292.247078857529</v>
+        <v>1946.224182794469</v>
       </c>
       <c r="F198">
-        <v>432.4564293405164</v>
+        <v>173.6286168525211</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>511.3</v>
+        <v>571.6</v>
       </c>
       <c r="B199">
-        <v>22893.22783086544</v>
+        <v>40998.58890378675</v>
       </c>
       <c r="C199">
-        <v>7626.357398794749</v>
+        <v>3251.2933149059</v>
       </c>
       <c r="D199">
-        <v>19476.94247697737</v>
+        <v>48674.27253553045</v>
       </c>
       <c r="E199">
-        <v>2490.343846027157</v>
+        <v>1363.84135387809</v>
       </c>
       <c r="F199">
-        <v>461.1089438443062</v>
+        <v>255.2841643165113</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>513.5</v>
+        <v>574.2</v>
       </c>
       <c r="B200">
-        <v>22256.70756215779</v>
+        <v>35015.77431817997</v>
       </c>
       <c r="C200">
-        <v>8304.357572499204</v>
+        <v>2793.166733967909</v>
       </c>
       <c r="D200">
-        <v>20535.07693727229</v>
+        <v>50412.97951408738</v>
       </c>
       <c r="E200">
-        <v>3265.04510158072</v>
+        <v>1577.388919704187</v>
       </c>
       <c r="F200">
-        <v>640.2548272827131</v>
+        <v>225.4225385921358</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>516.1</v>
+        <v>576.5</v>
       </c>
       <c r="B201">
-        <v>25057.1836082305</v>
+        <v>35092.89987706618</v>
       </c>
       <c r="C201">
-        <v>6751.08505051355</v>
+        <v>3890.977835445866</v>
       </c>
       <c r="D201">
-        <v>20426.50857216628</v>
+        <v>48020.29722588775</v>
       </c>
       <c r="E201">
-        <v>3243.328403598563</v>
+        <v>718.9886894734341</v>
       </c>
       <c r="F201">
-        <v>277.4272349826492</v>
+        <v>246.6987927590353</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>518.4</v>
+        <v>578.7</v>
       </c>
       <c r="B202">
-        <v>23874.91241821797</v>
+        <v>41876.67215078358</v>
       </c>
       <c r="C202">
-        <v>7741.267050295479</v>
+        <v>1964.101497729088</v>
       </c>
       <c r="D202">
-        <v>18710.46732611097</v>
+        <v>49033.81851543593</v>
       </c>
       <c r="E202">
-        <v>1661.425170768194</v>
+        <v>1256.605860557052</v>
       </c>
       <c r="F202">
-        <v>346.0797494864393</v>
+        <v>398.3543402230246</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>520.6</v>
+        <v>581</v>
       </c>
       <c r="B203">
-        <v>20878.39214951032</v>
+        <v>36343.79770966978</v>
       </c>
       <c r="C203">
-        <v>5189.267223999916</v>
+        <v>2231.912599207038</v>
       </c>
       <c r="D203">
-        <v>14108.60178640588</v>
+        <v>48301.13622723631</v>
       </c>
       <c r="E203">
-        <v>2776.126426321753</v>
+        <v>1448.205630326299</v>
       </c>
       <c r="F203">
-        <v>475.2256329248464</v>
+        <v>149.6305943899241</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>522.9</v>
+        <v>583.2</v>
       </c>
       <c r="B204">
-        <v>23526.12095949779</v>
+        <v>34897.56998338718</v>
       </c>
       <c r="C204">
-        <v>5899.449223781859</v>
+        <v>1465.036261490274</v>
       </c>
       <c r="D204">
-        <v>16972.56054035058</v>
+        <v>50814.65751678448</v>
       </c>
       <c r="E204">
-        <v>1924.223193491389</v>
+        <v>1165.822801409917</v>
       </c>
       <c r="F204">
-        <v>73.87814742863645</v>
+        <v>101.2861418539143</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>525.5</v>
+        <v>585.8</v>
       </c>
       <c r="B205">
-        <v>28456.59700557062</v>
+        <v>38514.75539778028</v>
       </c>
       <c r="C205">
-        <v>5586.176701796205</v>
+        <v>1656.90968055232</v>
       </c>
       <c r="D205">
-        <v>17813.99217524457</v>
+        <v>49323.36449534141</v>
       </c>
       <c r="E205">
-        <v>2242.506495509231</v>
+        <v>579.3703672360257</v>
       </c>
       <c r="F205">
-        <v>141.0505551285721</v>
+        <v>61.42451612953892</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>527.7</v>
+        <v>588.1</v>
       </c>
       <c r="B206">
-        <v>26410.07673686296</v>
+        <v>35371.8809566666</v>
       </c>
       <c r="C206">
-        <v>6914.176875500641</v>
+        <v>864.7207820302401</v>
       </c>
       <c r="D206">
-        <v>14712.12663553948</v>
+        <v>47970.68220714178</v>
       </c>
       <c r="E206">
-        <v>1817.207751062786</v>
+        <v>890.9701370052612</v>
       </c>
       <c r="F206">
-        <v>220.1964385669799</v>
+        <v>522.7007702964383</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>530</v>
+        <v>590.3</v>
       </c>
       <c r="B207">
-        <v>30187.80554685044</v>
+        <v>30145.65323038388</v>
       </c>
       <c r="C207">
-        <v>4384.358875282567</v>
+        <v>367.8444443134986</v>
       </c>
       <c r="D207">
-        <v>14656.08538948418</v>
+        <v>53094.20349668997</v>
       </c>
       <c r="E207">
-        <v>1775.304518232421</v>
+        <v>1628.587308088891</v>
       </c>
       <c r="F207">
-        <v>338.8489530707693</v>
+        <v>194.3563177604287</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>532.3</v>
+        <v>592.6</v>
       </c>
       <c r="B208">
-        <v>26215.53435683791</v>
+        <v>51882.77878927021</v>
       </c>
       <c r="C208">
-        <v>4314.540875064511</v>
+        <v>2885.655545791419</v>
       </c>
       <c r="D208">
-        <v>17150.04414342887</v>
+        <v>51811.52120849034</v>
       </c>
       <c r="E208">
-        <v>2883.401285402058</v>
+        <v>2010.187077858126</v>
       </c>
       <c r="F208">
-        <v>397.5014675745593</v>
+        <v>5.632571927327149</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>534.5</v>
+        <v>594.8</v>
       </c>
       <c r="B209">
-        <v>21979.01408813026</v>
+        <v>45866.55106298749</v>
       </c>
       <c r="C209">
-        <v>5502.541048768948</v>
+        <v>2188.779208074692</v>
       </c>
       <c r="D209">
-        <v>14688.17860372378</v>
+        <v>52585.04249803854</v>
       </c>
       <c r="E209">
-        <v>1998.102540955612</v>
+        <v>1497.804248941756</v>
       </c>
       <c r="F209">
-        <v>336.6473510129665</v>
+        <v>357.2881193913174</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>537.1</v>
+        <v>597.1</v>
       </c>
       <c r="B210">
-        <v>33049.49013420296</v>
+        <v>46763.67662187381</v>
       </c>
       <c r="C210">
-        <v>5559.268526783293</v>
+        <v>3476.590309552606</v>
       </c>
       <c r="D210">
-        <v>13869.61023861777</v>
+        <v>52622.3602098389</v>
       </c>
       <c r="E210">
-        <v>2396.385842973455</v>
+        <v>1669.404018710992</v>
       </c>
       <c r="F210">
-        <v>483.8197587129026</v>
+        <v>548.5643735582169</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>539</v>
+        <v>599.6</v>
       </c>
       <c r="B211">
-        <v>18110.22262941008</v>
+        <v>45967.5087510981</v>
       </c>
       <c r="C211">
-        <v>5270.723222255328</v>
+        <v>3553.776289419938</v>
       </c>
       <c r="D211">
-        <v>11810.27181796339</v>
+        <v>52017.27076614365</v>
       </c>
       <c r="E211">
-        <v>2130.900563678803</v>
+        <v>818.9689858514744</v>
       </c>
       <c r="F211">
-        <v>504.4457489551638</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>541.6</v>
-      </c>
-      <c r="B212">
-        <v>21820.69867548278</v>
-      </c>
-      <c r="C212">
-        <v>5697.450700269659</v>
-      </c>
-      <c r="D212">
-        <v>11941.70345285739</v>
-      </c>
-      <c r="E212">
-        <v>1599.183865696648</v>
-      </c>
-      <c r="F212">
-        <v>491.6181566550999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>543.9</v>
-      </c>
-      <c r="B213">
-        <v>28378.42748547026</v>
-      </c>
-      <c r="C213">
-        <v>4447.632700051603</v>
-      </c>
-      <c r="D213">
-        <v>11195.66220680208</v>
-      </c>
-      <c r="E213">
-        <v>727.2806328662809</v>
-      </c>
-      <c r="F213">
-        <v>380.2706711588894</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>546.1</v>
-      </c>
-      <c r="B214">
-        <v>10911.9072167626</v>
-      </c>
-      <c r="C214">
-        <v>2395.63287375604</v>
-      </c>
-      <c r="D214">
-        <v>8153.796667096991</v>
-      </c>
-      <c r="E214">
-        <v>1391.981888419839</v>
-      </c>
-      <c r="F214">
-        <v>259.4165545972967</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>548.4</v>
-      </c>
-      <c r="B215">
-        <v>16319.63602675007</v>
-      </c>
-      <c r="C215">
-        <v>3125.814873537984</v>
-      </c>
-      <c r="D215">
-        <v>8087.755421041686</v>
-      </c>
-      <c r="E215">
-        <v>1470.078655589472</v>
-      </c>
-      <c r="F215">
-        <v>518.0690691010866</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>550.6</v>
-      </c>
-      <c r="B216">
-        <v>19243.11575804243</v>
-      </c>
-      <c r="C216">
-        <v>2393.81504724242</v>
-      </c>
-      <c r="D216">
-        <v>9235.889881336596</v>
-      </c>
-      <c r="E216">
-        <v>984.7799111430304</v>
-      </c>
-      <c r="F216">
-        <v>367.2149525394939</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>553.2</v>
-      </c>
-      <c r="B217">
-        <v>16023.59180411525</v>
-      </c>
-      <c r="C217">
-        <v>3910.542525256766</v>
-      </c>
-      <c r="D217">
-        <v>8697.321516230586</v>
-      </c>
-      <c r="E217">
-        <v>753.0632131608718</v>
-      </c>
-      <c r="F217">
-        <v>504.3873602394297</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>555.5</v>
-      </c>
-      <c r="B218">
-        <v>11551.32061410272</v>
-      </c>
-      <c r="C218">
-        <v>3360.724525038695</v>
-      </c>
-      <c r="D218">
-        <v>5831.280270175295</v>
-      </c>
-      <c r="E218">
-        <v>631.159980330508</v>
-      </c>
-      <c r="F218">
-        <v>363.0398747432196</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>557.8</v>
-      </c>
-      <c r="B219">
-        <v>10579.04942409019</v>
-      </c>
-      <c r="C219">
-        <v>3570.906524820639</v>
-      </c>
-      <c r="D219">
-        <v>8145.239024119976</v>
-      </c>
-      <c r="E219">
-        <v>1749.256747500141</v>
-      </c>
-      <c r="F219">
-        <v>271.6923892470095</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>560</v>
-      </c>
-      <c r="B220">
-        <v>11972.52915538254</v>
-      </c>
-      <c r="C220">
-        <v>4518.906698525076</v>
-      </c>
-      <c r="D220">
-        <v>6583.3734844149</v>
-      </c>
-      <c r="E220">
-        <v>1393.958003053699</v>
-      </c>
-      <c r="F220">
-        <v>460.8382726854163</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>562.6</v>
-      </c>
-      <c r="B221">
-        <v>8293.005201455362</v>
-      </c>
-      <c r="C221">
-        <v>4355.634176539421</v>
-      </c>
-      <c r="D221">
-        <v>6034.805119308898</v>
-      </c>
-      <c r="E221">
-        <v>1542.24130507154</v>
-      </c>
-      <c r="F221">
-        <v>238.0106803853525</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>564.9</v>
-      </c>
-      <c r="B222">
-        <v>12720.73401144283</v>
-      </c>
-      <c r="C222">
-        <v>4645.81617632135</v>
-      </c>
-      <c r="D222">
-        <v>5238.763873253592</v>
-      </c>
-      <c r="E222">
-        <v>1200.338072241177</v>
-      </c>
-      <c r="F222">
-        <v>416.6631948891429</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>567.1</v>
-      </c>
-      <c r="B223">
-        <v>11484.21374273518</v>
-      </c>
-      <c r="C223">
-        <v>3803.816350025783</v>
-      </c>
-      <c r="D223">
-        <v>6176.898333548503</v>
-      </c>
-      <c r="E223">
-        <v>1085.039327794731</v>
-      </c>
-      <c r="F223">
-        <v>405.8090783275497</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>569.4</v>
-      </c>
-      <c r="B224">
-        <v>15501.94255272266</v>
-      </c>
-      <c r="C224">
-        <v>5293.998349807727</v>
-      </c>
-      <c r="D224">
-        <v>4960.857087493197</v>
-      </c>
-      <c r="E224">
-        <v>1463.136094964368</v>
-      </c>
-      <c r="F224">
-        <v>194.4615928313397</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>571.6</v>
-      </c>
-      <c r="B225">
-        <v>12555.42228401501</v>
-      </c>
-      <c r="C225">
-        <v>3351.998523512164</v>
-      </c>
-      <c r="D225">
-        <v>3668.991547788108</v>
-      </c>
-      <c r="E225">
-        <v>867.8373505179261</v>
-      </c>
-      <c r="F225">
-        <v>273.6074762697469</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>574.2</v>
-      </c>
-      <c r="B226">
-        <v>6335.898330087712</v>
-      </c>
-      <c r="C226">
-        <v>2828.726001526509</v>
-      </c>
-      <c r="D226">
-        <v>4940.423182682098</v>
-      </c>
-      <c r="E226">
-        <v>1066.120652535767</v>
-      </c>
-      <c r="F226">
-        <v>240.7798839696829</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>576.5</v>
-      </c>
-      <c r="B227">
-        <v>6203.627140075183</v>
-      </c>
-      <c r="C227">
-        <v>3868.908001308439</v>
-      </c>
-      <c r="D227">
-        <v>2134.381936626793</v>
-      </c>
-      <c r="E227">
-        <v>194.2174197054001</v>
-      </c>
-      <c r="F227">
-        <v>259.4323984734726</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>578.7</v>
-      </c>
-      <c r="B228">
-        <v>12787.10687136753</v>
-      </c>
-      <c r="C228">
-        <v>1886.908175012875</v>
-      </c>
-      <c r="D228">
-        <v>2752.516396921703</v>
-      </c>
-      <c r="E228">
-        <v>718.9186752589585</v>
-      </c>
-      <c r="F228">
-        <v>408.5782819118801</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>581</v>
-      </c>
-      <c r="B229">
-        <v>7044.835681355002</v>
-      </c>
-      <c r="C229">
-        <v>2097.090174794823</v>
-      </c>
-      <c r="D229">
-        <v>1606.475150866405</v>
-      </c>
-      <c r="E229">
-        <v>897.0154424285911</v>
-      </c>
-      <c r="F229">
-        <v>157.2307964156698</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>583.2</v>
-      </c>
-      <c r="B230">
-        <v>5398.315412647353</v>
-      </c>
-      <c r="C230">
-        <v>1275.090348499252</v>
-      </c>
-      <c r="D230">
-        <v>3724.609611161315</v>
-      </c>
-      <c r="E230">
-        <v>601.7166979821495</v>
-      </c>
-      <c r="F230">
-        <v>106.3766798540771</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>585.8</v>
-      </c>
-      <c r="B231">
-        <v>8778.791458720178</v>
-      </c>
-      <c r="C231">
-        <v>1401.817826513638</v>
-      </c>
-      <c r="D231">
-        <v>1766.041246055327</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>63.54908755401379</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>588.1</v>
-      </c>
-      <c r="B232">
-        <v>5426.520268707645</v>
-      </c>
-      <c r="C232">
-        <v>551.9998262955269</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <v>298.0967671696271</v>
-      </c>
-      <c r="F232">
-        <v>522.201602057803</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>590.3</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>4728.134460294932</v>
-      </c>
-      <c r="E233">
-        <v>1022.798022723191</v>
-      </c>
-      <c r="F233">
-        <v>191.347485496211</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>592.6</v>
-      </c>
-      <c r="B234">
-        <v>21527.72880998747</v>
-      </c>
-      <c r="C234">
-        <v>2460.181999781897</v>
-      </c>
-      <c r="D234">
-        <v>3032.09321423962</v>
-      </c>
-      <c r="E234">
-        <v>1390.894789892818</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>594.8</v>
-      </c>
-      <c r="B235">
-        <v>15311.20854127982</v>
-      </c>
-      <c r="C235">
-        <v>1708.18217348637</v>
-      </c>
-      <c r="D235">
-        <v>3410.227674534544</v>
-      </c>
-      <c r="E235">
-        <v>865.5960454463811</v>
-      </c>
-      <c r="F235">
-        <v>349.1458834384077</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>597.1</v>
-      </c>
-      <c r="B236">
-        <v>15998.93735126729</v>
-      </c>
-      <c r="C236">
-        <v>2938.364173268288</v>
-      </c>
-      <c r="D236">
-        <v>3034.186428479225</v>
-      </c>
-      <c r="E236">
-        <v>1023.692812616008</v>
-      </c>
-      <c r="F236">
-        <v>537.7983979421977</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>599.6</v>
-      </c>
-      <c r="B237">
-        <v>14975.16431864488</v>
-      </c>
-      <c r="C237">
-        <v>2952.909825205163</v>
-      </c>
-      <c r="D237">
-        <v>1979.793769723445</v>
-      </c>
-      <c r="E237">
-        <v>158.5806030177819</v>
-      </c>
-      <c r="F237">
-        <v>205.4641745767512</v>
+        <v>219.0820411309321</v>
       </c>
     </row>
   </sheetData>
